--- a/data/SDG6.xlsx
+++ b/data/SDG6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95ECF30-31AC-0B46-AD30-A23996D80FBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F8B98B-5C41-D042-9C73-37F86EFA409C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2600" windowWidth="27240" windowHeight="16360" activeTab="3" xr2:uid="{67286E11-03C2-5A48-8719-53F03CB41523}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="1505">
   <si>
     <t>keyword</t>
   </si>
@@ -3889,6 +3889,669 @@
   </si>
   <si>
     <t>it_lem</t>
+  </si>
+  <si>
+    <t>zugängliche Toilette</t>
+  </si>
+  <si>
+    <t>fortgeschrittener Oxidationsprozess</t>
+  </si>
+  <si>
+    <t>aerobes Behandlungssystem</t>
+  </si>
+  <si>
+    <t>erschwingliches Trinkwasser</t>
+  </si>
+  <si>
+    <t>landwirtschaftliche Abwasserbehandlung</t>
+  </si>
+  <si>
+    <t>Luft spritzen</t>
+  </si>
+  <si>
+    <t>aquatische Toxikologie</t>
+  </si>
+  <si>
+    <t>Lagerung und Rückgewinnung von Grundwasserleitern</t>
+  </si>
+  <si>
+    <t>Arsenbelastung des Grundwassers</t>
+  </si>
+  <si>
+    <t>atmosphärischer Wassergenerator</t>
+  </si>
+  <si>
+    <t>automatischer selbstreinigender Toilettensitz</t>
+  </si>
+  <si>
+    <t>Backswamp</t>
+  </si>
+  <si>
+    <t>Bankfiltration</t>
+  </si>
+  <si>
+    <t>Barcelona Convention</t>
+  </si>
+  <si>
+    <t>Bas Sahara Becken</t>
+  </si>
+  <si>
+    <t>grundlegende sanitäre Einrichtungen</t>
+  </si>
+  <si>
+    <t>Gürtel Philtre</t>
+  </si>
+  <si>
+    <t>Biofilter</t>
+  </si>
+  <si>
+    <t>Biosand Philtre</t>
+  </si>
+  <si>
+    <t>Moor Teich</t>
+  </si>
+  <si>
+    <t>Bosque</t>
+  </si>
+  <si>
+    <t>in Flaschen abgefülltes Wasser</t>
+  </si>
+  <si>
+    <t>Eimertoilette</t>
+  </si>
+  <si>
+    <t>Cadmiumvergiftung</t>
+  </si>
+  <si>
+    <t>Wasser in Dosen</t>
+  </si>
+  <si>
+    <t>kapazitive Deionisierung</t>
+  </si>
+  <si>
+    <t>Kapillarrand</t>
+  </si>
+  <si>
+    <t>keramisches Wasser philtre</t>
+  </si>
+  <si>
+    <t>Senkgrube</t>
+  </si>
+  <si>
+    <t>Abwasserbehandlung mit chemischer Zugabe</t>
+  </si>
+  <si>
+    <t>chemischer Fouling-Inhibitor</t>
+  </si>
+  <si>
+    <t>chemische Phosphorentfernung</t>
+  </si>
+  <si>
+    <t>Chloraminierung</t>
+  </si>
+  <si>
+    <t>Coliforme Bakterien</t>
+  </si>
+  <si>
+    <t>coliformer Index</t>
+  </si>
+  <si>
+    <t>gefärbte gelöste organische Substanz</t>
+  </si>
+  <si>
+    <t>kombinierter Abwasserkanal</t>
+  </si>
+  <si>
+    <t>konzentrierte Solar noch</t>
+  </si>
+  <si>
+    <t>sanitäre Anlagen auf Containerbasis</t>
+  </si>
+  <si>
+    <t>kontaminiertes Wasser</t>
+  </si>
+  <si>
+    <t>Waschen mit Rohöl</t>
+  </si>
+  <si>
+    <t>Zyanidfischen</t>
+  </si>
+  <si>
+    <t>Dealkalisierung von Wasser</t>
+  </si>
+  <si>
+    <t>Dekanterzentrifuge</t>
+  </si>
+  <si>
+    <t>Defluoridierung</t>
+  </si>
+  <si>
+    <t>Wüstenufer</t>
+  </si>
+  <si>
+    <t>Haftbecken</t>
+  </si>
+  <si>
+    <t>würdige mobile Toilette</t>
+  </si>
+  <si>
+    <t>häuslichem Abwasser</t>
+  </si>
+  <si>
+    <t>Wasser trinken</t>
+  </si>
+  <si>
+    <t>Trinkwasserqualitätsstandard</t>
+  </si>
+  <si>
+    <t>Dürre</t>
+  </si>
+  <si>
+    <t>Dürre Zuflucht</t>
+  </si>
+  <si>
+    <t>Rohr aus duktilem Eisen</t>
+  </si>
+  <si>
+    <t>Abwasser färben</t>
+  </si>
+  <si>
+    <t>Elektrodeionisierung</t>
+  </si>
+  <si>
+    <t>Umweltauswirkungen von Wäscheabwasser</t>
+  </si>
+  <si>
+    <t>Umweltauswirkungen von Arzneimitteln und Körperpflegeprodukten</t>
+  </si>
+  <si>
+    <t>Euxinia</t>
+  </si>
+  <si>
+    <t>fäkale coliforme</t>
+  </si>
+  <si>
+    <t>Fäkalienschlammmanagement</t>
+  </si>
+  <si>
+    <t>Flutwiese</t>
+  </si>
+  <si>
+    <t>Auen</t>
+  </si>
+  <si>
+    <t>Flussterrasse</t>
+  </si>
+  <si>
+    <t>frisches Wasser</t>
+  </si>
+  <si>
+    <t>Süßwasserversauerung</t>
+  </si>
+  <si>
+    <t>Greenpeace arktischen Sonnenaufgang Schiff Fall</t>
+  </si>
+  <si>
+    <t>graues Wasser</t>
+  </si>
+  <si>
+    <t>Grundwasserableitung</t>
+  </si>
+  <si>
+    <t>Grundwasserfluss</t>
+  </si>
+  <si>
+    <t>Hand pumpe</t>
+  </si>
+  <si>
+    <t>Nilpferd Wasserrolle</t>
+  </si>
+  <si>
+    <t>Whirlpool Philtre</t>
+  </si>
+  <si>
+    <t>menschlicher Abfall</t>
+  </si>
+  <si>
+    <t>feuchte Oxidation mit Peroxid</t>
+  </si>
+  <si>
+    <t>wasserhaltiger Boden</t>
+  </si>
+  <si>
+    <t>Eisschweinchen</t>
+  </si>
+  <si>
+    <t>verbesserte sanitäre Einrichtungen</t>
+  </si>
+  <si>
+    <t>Wasser verbessern</t>
+  </si>
+  <si>
+    <t>Industrielles Abwasser</t>
+  </si>
+  <si>
+    <t>integriertes städtisches Wassermanagement</t>
+  </si>
+  <si>
+    <t>Interbasin Transfer</t>
+  </si>
+  <si>
+    <t>internationales Wasserwirtschaftsinstitut</t>
+  </si>
+  <si>
+    <t>Kern River Reservat</t>
+  </si>
+  <si>
+    <t>Landgewinnung</t>
+  </si>
+  <si>
+    <t>Latrine</t>
+  </si>
+  <si>
+    <t>Lava Philtre</t>
+  </si>
+  <si>
+    <t>Kalk erweichen</t>
+  </si>
+  <si>
+    <t>Megadrought</t>
+  </si>
+  <si>
+    <t>Membranbioreaktor</t>
+  </si>
+  <si>
+    <t>Quecksilberverschmutzung im Ozean</t>
+  </si>
+  <si>
+    <t>Mehrfacheffektdestillation</t>
+  </si>
+  <si>
+    <t>Mehrfacheffektbefeuchtung</t>
+  </si>
+  <si>
+    <t>nicht einkommensabhängiges Wasser</t>
+  </si>
+  <si>
+    <t>Nussschale Philtre</t>
+  </si>
+  <si>
+    <t>öliges Abwasser</t>
+  </si>
+  <si>
+    <t>Regenwasser auffangen</t>
+  </si>
+  <si>
+    <t>Stromwiederherstellung</t>
+  </si>
+  <si>
+    <t>Chlorierung mit Wasser</t>
+  </si>
+  <si>
+    <t>Nachhaltigkeit des Wassers</t>
+  </si>
+  <si>
+    <t>mega siccità</t>
+  </si>
+  <si>
+    <t>microplastiche</t>
+  </si>
+  <si>
+    <t>distillazione flash in più fasi</t>
+  </si>
+  <si>
+    <t>distillazione a più effetti</t>
+  </si>
+  <si>
+    <t>umidificazione a più effetti</t>
+  </si>
+  <si>
+    <t>acqua non fiscale</t>
+  </si>
+  <si>
+    <t>filtro a guscio di noce</t>
+  </si>
+  <si>
+    <t>fuoriuscita di petrolio</t>
+  </si>
+  <si>
+    <t>bagno a pagamento</t>
+  </si>
+  <si>
+    <t>intercettore benzina</t>
+  </si>
+  <si>
+    <t>imbuto filtro</t>
+  </si>
+  <si>
+    <t>inquinamento da pellet di resina plastica</t>
+  </si>
+  <si>
+    <t>WC portatile</t>
+  </si>
+  <si>
+    <t>Bagno pubblico</t>
+  </si>
+  <si>
+    <t>raccolta dell'acqua piovana</t>
+  </si>
+  <si>
+    <t>maiale dell'acqua piovana</t>
+  </si>
+  <si>
+    <t>ranney collezionista</t>
+  </si>
+  <si>
+    <t>filtro di sabbia rapida</t>
+  </si>
+  <si>
+    <t>acque reflue reali</t>
+  </si>
+  <si>
+    <t>riutilizzare la bottiglia</t>
+  </si>
+  <si>
+    <t>sorgente del fiume</t>
+  </si>
+  <si>
+    <t>reattore a biofilm a celle rotanti</t>
+  </si>
+  <si>
+    <t>filtro di sgrossatura</t>
+  </si>
+  <si>
+    <t>stoccaggio sicuro dell'acqua per uso domestico</t>
+  </si>
+  <si>
+    <t>clorazione con acqua salata</t>
+  </si>
+  <si>
+    <t>filtro di sabbia</t>
+  </si>
+  <si>
+    <t>fognatura sanitaria</t>
+  </si>
+  <si>
+    <t>igiene</t>
+  </si>
+  <si>
+    <t>reattore batch di sequenziamento</t>
+  </si>
+  <si>
+    <t>acque luride</t>
+  </si>
+  <si>
+    <t>regolazione e amministrazione delle acque reflue</t>
+  </si>
+  <si>
+    <t>prova di lumaca</t>
+  </si>
+  <si>
+    <t>sono filtro arsenico</t>
+  </si>
+  <si>
+    <t>ripristino del flusso</t>
+  </si>
+  <si>
+    <t>serbatoio di stoccaggio estivo</t>
+  </si>
+  <si>
+    <t>stagno dei rifiuti</t>
+  </si>
+  <si>
+    <t>effluente delle acque reflue</t>
+  </si>
+  <si>
+    <t>acqua e servizi igienico-sanitari</t>
+  </si>
+  <si>
+    <t>disponibilità di acqua</t>
+  </si>
+  <si>
+    <t>corpi d'acqua</t>
+  </si>
+  <si>
+    <t>conflitto d'acqua</t>
+  </si>
+  <si>
+    <t>cooperazione idrica</t>
+  </si>
+  <si>
+    <t>presepe d'acqua</t>
+  </si>
+  <si>
+    <t>crisi idrica</t>
+  </si>
+  <si>
+    <t>carenza di acqua</t>
+  </si>
+  <si>
+    <t>deficit idrico</t>
+  </si>
+  <si>
+    <t>governance dell'acqua</t>
+  </si>
+  <si>
+    <t>gestione delle risorse idriche</t>
+  </si>
+  <si>
+    <t>prezzo dell'acqua</t>
+  </si>
+  <si>
+    <t>problemi idrici</t>
+  </si>
+  <si>
+    <t>restrizione idrica</t>
+  </si>
+  <si>
+    <t>sicurezza idrica</t>
+  </si>
+  <si>
+    <t>mancanza d'acqua</t>
+  </si>
+  <si>
+    <t>ristagno idrico</t>
+  </si>
+  <si>
+    <t>fornitura d'acqua</t>
+  </si>
+  <si>
+    <t>trasporto di acqua</t>
+  </si>
+  <si>
+    <t>trattamento delle acque</t>
+  </si>
+  <si>
+    <t>gestione degli spartiacque</t>
+  </si>
+  <si>
+    <t>ben drenaggio</t>
+  </si>
+  <si>
+    <t>WC accessibile</t>
+  </si>
+  <si>
+    <t>processo di ossidazione avanzato</t>
+  </si>
+  <si>
+    <t>spargimento d'aria</t>
+  </si>
+  <si>
+    <t>falda artesiana</t>
+  </si>
+  <si>
+    <t>sedile WC autopulente automatico</t>
+  </si>
+  <si>
+    <t>filtrazione bancaria</t>
+  </si>
+  <si>
+    <t>bacino del sahariano bas</t>
+  </si>
+  <si>
+    <t>servizi igienico-sanitari di base</t>
+  </si>
+  <si>
+    <t>filtro da cintura</t>
+  </si>
+  <si>
+    <t>WC secchio</t>
+  </si>
+  <si>
+    <t>filtro per acqua in ceramica</t>
+  </si>
+  <si>
+    <t>addizione chimica trattamento delle acque reflue</t>
+  </si>
+  <si>
+    <t>inibitore di incrostazioni chimiche</t>
+  </si>
+  <si>
+    <t>WC chimico</t>
+  </si>
+  <si>
+    <t>agente chiarificante</t>
+  </si>
+  <si>
+    <t>materia organica disciolta colorata</t>
+  </si>
+  <si>
+    <t>fognatura combinata</t>
+  </si>
+  <si>
+    <t>WC per il compostaggio</t>
+  </si>
+  <si>
+    <t>servizi igienico-sanitari basati su container</t>
+  </si>
+  <si>
+    <t>acque sotterranee contaminate</t>
+  </si>
+  <si>
+    <t>filtrazione dell'acqua di rame e zinco</t>
+  </si>
+  <si>
+    <t>filtrazione tangenziale</t>
+  </si>
+  <si>
+    <t>lavaggio con petrolio greggio</t>
+  </si>
+  <si>
+    <t>pesca al cianuro</t>
+  </si>
+  <si>
+    <t>dealcalinizzazione dell'acqua</t>
+  </si>
+  <si>
+    <t>sistema decentralizzato di acque reflue</t>
+  </si>
+  <si>
+    <t>defluoridazione</t>
+  </si>
+  <si>
+    <t>dissalazione</t>
+  </si>
+  <si>
+    <t>dignitosa toilette mobile</t>
+  </si>
+  <si>
+    <t>Fontanella</t>
+  </si>
+  <si>
+    <t>bevendo acqua</t>
+  </si>
+  <si>
+    <t>rifugio di siccità</t>
+  </si>
+  <si>
+    <t>WC a secco</t>
+  </si>
+  <si>
+    <t>tubo in ghisa sferoidale</t>
+  </si>
+  <si>
+    <t>dune d'acqua</t>
+  </si>
+  <si>
+    <t>effetti ambientali delle acque reflue del bucato</t>
+  </si>
+  <si>
+    <t>impatto ambientale dei prodotti farmaceutici e dei prodotti per la cura della persona</t>
+  </si>
+  <si>
+    <t>terrazzo fluviale</t>
+  </si>
+  <si>
+    <t>WC volante</t>
+  </si>
+  <si>
+    <t>raccolta nebbia</t>
+  </si>
+  <si>
+    <t>acque sotterranee fresche</t>
+  </si>
+  <si>
+    <t>risorse di acqua dolce</t>
+  </si>
+  <si>
+    <t>custodia per nave artica alba di greenpeace</t>
+  </si>
+  <si>
+    <t>acqua grigia</t>
+  </si>
+  <si>
+    <t>flusso delle acque sotterranee</t>
+  </si>
+  <si>
+    <t>risorsa idrica sotterranea</t>
+  </si>
+  <si>
+    <t>ondata di caldo</t>
+  </si>
+  <si>
+    <t>segno dell'acqua alta</t>
+  </si>
+  <si>
+    <t>rullo ad acqua ippopotamo</t>
+  </si>
+  <si>
+    <t>filtro vasca idromassaggio</t>
+  </si>
+  <si>
+    <t>spreco umano</t>
+  </si>
+  <si>
+    <t>terreno idrico</t>
+  </si>
+  <si>
+    <t>pigging sul ghiaccio</t>
+  </si>
+  <si>
+    <t>migliore igiene</t>
+  </si>
+  <si>
+    <t>migliorare l'acqua</t>
+  </si>
+  <si>
+    <t>gestione integrata delle acque urbane</t>
+  </si>
+  <si>
+    <t>trasferimento interbase</t>
+  </si>
+  <si>
+    <t>istituto internazionale per la gestione delle acque</t>
+  </si>
+  <si>
+    <t>Riserva del fiume Kern</t>
+  </si>
+  <si>
+    <t>bonifica</t>
+  </si>
+  <si>
+    <t>filtro lavico</t>
+  </si>
+  <si>
+    <t>ammorbidimento della calce</t>
   </si>
 </sst>
 </file>
@@ -4274,7 +4937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7D903-8E13-C145-A548-3F5AD54CE85E}">
   <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D290"/>
     </sheetView>
   </sheetViews>
@@ -7776,13 +8439,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4855A49-6D86-4140-B181-CF293B098756}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A272" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149:C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7810,6 +8475,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -7822,6 +8490,9 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>1284</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
@@ -7834,6 +8505,9 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -7846,6 +8520,9 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C5" t="s">
+        <v>1285</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
@@ -7858,6 +8535,9 @@
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
@@ -7870,6 +8550,9 @@
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C7" t="s">
+        <v>1286</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
@@ -7882,6 +8565,9 @@
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C8" t="s">
+        <v>1287</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
@@ -7894,6 +8580,9 @@
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
@@ -7906,6 +8595,9 @@
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C10" t="s">
+        <v>1288</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>40</v>
       </c>
@@ -7918,6 +8610,9 @@
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C11" t="s">
+        <v>1289</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
@@ -7930,6 +8625,9 @@
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
@@ -7942,6 +8640,9 @@
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>56</v>
       </c>
@@ -7954,6 +8655,9 @@
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="C14" t="s">
+        <v>1290</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
@@ -7966,6 +8670,9 @@
       <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
@@ -7978,6 +8685,9 @@
       <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C16" t="s">
+        <v>1291</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>68</v>
       </c>
@@ -7990,6 +8700,9 @@
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C17" t="s">
+        <v>1292</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
@@ -8002,6 +8715,9 @@
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>78</v>
       </c>
@@ -8014,6 +8730,9 @@
       <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="C19" t="s">
+        <v>1293</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>82</v>
       </c>
@@ -8026,6 +8745,9 @@
       <c r="B20" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="C20" t="s">
+        <v>1294</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>86</v>
       </c>
@@ -8038,6 +8760,9 @@
       <c r="B21" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="C21" t="s">
+        <v>1295</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>91</v>
       </c>
@@ -8050,6 +8775,9 @@
       <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>93</v>
       </c>
@@ -8062,6 +8790,9 @@
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="C23" t="s">
+        <v>1296</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>98</v>
       </c>
@@ -8074,6 +8805,9 @@
       <c r="B24" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C24" t="s">
+        <v>1297</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>103</v>
       </c>
@@ -8086,6 +8820,9 @@
       <c r="B25" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="C25" t="s">
+        <v>1298</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>107</v>
       </c>
@@ -8098,6 +8835,9 @@
       <c r="B26" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="C26" t="s">
+        <v>1299</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>111</v>
       </c>
@@ -8110,6 +8850,9 @@
       <c r="B27" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="C27" t="s">
+        <v>1300</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>116</v>
       </c>
@@ -8122,6 +8865,9 @@
       <c r="B28" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="C28" t="s">
+        <v>1301</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>119</v>
       </c>
@@ -8134,6 +8880,9 @@
       <c r="B29" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="C29" t="s">
+        <v>1302</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>122</v>
       </c>
@@ -8146,6 +8895,9 @@
       <c r="B30" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="C30" t="s">
+        <v>1046</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>126</v>
       </c>
@@ -8158,6 +8910,9 @@
       <c r="B31" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="C31" t="s">
+        <v>1303</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>131</v>
       </c>
@@ -8170,6 +8925,9 @@
       <c r="B32" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>136</v>
       </c>
@@ -8182,6 +8940,9 @@
       <c r="B33" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="C33" t="s">
+        <v>1304</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>141</v>
       </c>
@@ -8194,6 +8955,9 @@
       <c r="B34" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C34" t="s">
+        <v>1305</v>
+      </c>
       <c r="D34" s="5" t="s">
         <v>144</v>
       </c>
@@ -8206,6 +8970,9 @@
       <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="C35" t="s">
+        <v>1306</v>
+      </c>
       <c r="D35" s="5" t="s">
         <v>149</v>
       </c>
@@ -8218,6 +8985,9 @@
       <c r="B36" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
       <c r="D36" s="5" t="s">
         <v>154</v>
       </c>
@@ -8230,6 +9000,9 @@
       <c r="B37" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="C37" t="s">
+        <v>1307</v>
+      </c>
       <c r="D37" s="5" t="s">
         <v>159</v>
       </c>
@@ -8242,6 +9015,9 @@
       <c r="B38" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="C38" t="s">
+        <v>1308</v>
+      </c>
       <c r="D38" s="5" t="s">
         <v>164</v>
       </c>
@@ -8254,6 +9030,9 @@
       <c r="B39" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="C39" t="s">
+        <v>1309</v>
+      </c>
       <c r="D39" s="5" t="s">
         <v>168</v>
       </c>
@@ -8266,6 +9045,9 @@
       <c r="B40" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C40" t="s">
+        <v>1310</v>
+      </c>
       <c r="D40" s="5" t="s">
         <v>173</v>
       </c>
@@ -8278,6 +9060,9 @@
       <c r="B41" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
       <c r="D41" s="5" t="s">
         <v>177</v>
       </c>
@@ -8290,6 +9075,9 @@
       <c r="B42" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="C42" t="s">
+        <v>1311</v>
+      </c>
       <c r="D42" s="5" t="s">
         <v>182</v>
       </c>
@@ -8302,6 +9090,9 @@
       <c r="B43" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="C43" t="s">
+        <v>1312</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>186</v>
       </c>
@@ -8314,6 +9105,9 @@
       <c r="B44" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="C44" t="s">
+        <v>1313</v>
+      </c>
       <c r="D44" s="5" t="s">
         <v>191</v>
       </c>
@@ -8326,6 +9120,9 @@
       <c r="B45" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="C45" t="s">
+        <v>1314</v>
+      </c>
       <c r="D45" s="5" t="s">
         <v>195</v>
       </c>
@@ -8338,6 +9135,9 @@
       <c r="B46" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="C46" t="s">
+        <v>1315</v>
+      </c>
       <c r="D46" s="5" t="s">
         <v>199</v>
       </c>
@@ -8350,6 +9150,9 @@
       <c r="B47" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="C47" t="s">
+        <v>204</v>
+      </c>
       <c r="D47" s="5" t="s">
         <v>204</v>
       </c>
@@ -8362,6 +9165,9 @@
       <c r="B48" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="C48" t="s">
+        <v>1316</v>
+      </c>
       <c r="D48" s="5" t="s">
         <v>208</v>
       </c>
@@ -8374,6 +9180,9 @@
       <c r="B49" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
       <c r="D49" s="5" t="s">
         <v>211</v>
       </c>
@@ -8386,6 +9195,9 @@
       <c r="B50" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="C50" t="s">
+        <v>216</v>
+      </c>
       <c r="D50" s="5" t="s">
         <v>216</v>
       </c>
@@ -8398,6 +9210,9 @@
       <c r="B51" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="C51" t="s">
+        <v>1317</v>
+      </c>
       <c r="D51" s="5" t="s">
         <v>220</v>
       </c>
@@ -8410,6 +9225,9 @@
       <c r="B52" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="C52" t="s">
+        <v>1318</v>
+      </c>
       <c r="D52" s="5" t="s">
         <v>225</v>
       </c>
@@ -8422,6 +9240,9 @@
       <c r="B53" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="C53" t="s">
+        <v>1319</v>
+      </c>
       <c r="D53" s="5" t="s">
         <v>229</v>
       </c>
@@ -8434,6 +9255,9 @@
       <c r="B54" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="C54" t="s">
+        <v>1320</v>
+      </c>
       <c r="D54" s="5" t="s">
         <v>233</v>
       </c>
@@ -8446,6 +9270,9 @@
       <c r="B55" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
       <c r="D55" s="5" t="s">
         <v>238</v>
       </c>
@@ -8458,6 +9285,9 @@
       <c r="B56" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="C56" t="s">
+        <v>1321</v>
+      </c>
       <c r="D56" s="5" t="s">
         <v>243</v>
       </c>
@@ -8470,6 +9300,9 @@
       <c r="B57" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="C57" t="s">
+        <v>1322</v>
+      </c>
       <c r="D57" s="5" t="s">
         <v>248</v>
       </c>
@@ -8482,6 +9315,9 @@
       <c r="B58" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
       <c r="D58" s="5" t="s">
         <v>253</v>
       </c>
@@ -8494,6 +9330,9 @@
       <c r="B59" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="C59" t="s">
+        <v>1323</v>
+      </c>
       <c r="D59" s="5" t="s">
         <v>257</v>
       </c>
@@ -8506,6 +9345,9 @@
       <c r="B60" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="C60" t="s">
+        <v>262</v>
+      </c>
       <c r="D60" s="5" t="s">
         <v>262</v>
       </c>
@@ -8518,6 +9360,9 @@
       <c r="B61" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="C61" t="s">
+        <v>267</v>
+      </c>
       <c r="D61" s="5" t="s">
         <v>267</v>
       </c>
@@ -8530,6 +9375,9 @@
       <c r="B62" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="C62" t="s">
+        <v>1324</v>
+      </c>
       <c r="D62" s="5" t="s">
         <v>272</v>
       </c>
@@ -8542,6 +9390,9 @@
       <c r="B63" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="C63" t="s">
+        <v>1325</v>
+      </c>
       <c r="D63" s="5" t="s">
         <v>277</v>
       </c>
@@ -8554,6 +9405,9 @@
       <c r="B64" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="C64" t="s">
+        <v>1326</v>
+      </c>
       <c r="D64" s="5" t="s">
         <v>282</v>
       </c>
@@ -8566,6 +9420,9 @@
       <c r="B65" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="C65" t="s">
+        <v>1327</v>
+      </c>
       <c r="D65" s="5" t="s">
         <v>287</v>
       </c>
@@ -8578,6 +9435,9 @@
       <c r="B66" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="C66" t="s">
+        <v>291</v>
+      </c>
       <c r="D66" s="5" t="s">
         <v>291</v>
       </c>
@@ -8590,6 +9450,9 @@
       <c r="B67" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="C67" t="s">
+        <v>1328</v>
+      </c>
       <c r="D67" s="5" t="s">
         <v>296</v>
       </c>
@@ -8602,6 +9465,9 @@
       <c r="B68" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="C68" t="s">
+        <v>301</v>
+      </c>
       <c r="D68" s="5" t="s">
         <v>301</v>
       </c>
@@ -8614,6 +9480,9 @@
       <c r="B69" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="C69" t="s">
+        <v>301</v>
+      </c>
       <c r="D69" s="5" t="s">
         <v>301</v>
       </c>
@@ -8626,6 +9495,9 @@
       <c r="B70" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="C70" t="s">
+        <v>1329</v>
+      </c>
       <c r="D70" s="5" t="s">
         <v>308</v>
       </c>
@@ -8638,6 +9510,9 @@
       <c r="B71" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="C71" t="s">
+        <v>1330</v>
+      </c>
       <c r="D71" s="5" t="s">
         <v>312</v>
       </c>
@@ -8650,6 +9525,9 @@
       <c r="B72" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="C72" t="s">
+        <v>316</v>
+      </c>
       <c r="D72" s="5" t="s">
         <v>316</v>
       </c>
@@ -8662,6 +9540,9 @@
       <c r="B73" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="C73" t="s">
+        <v>1331</v>
+      </c>
       <c r="D73" s="5" t="s">
         <v>321</v>
       </c>
@@ -8674,6 +9555,9 @@
       <c r="B74" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="C74" t="s">
+        <v>326</v>
+      </c>
       <c r="D74" s="5" t="s">
         <v>326</v>
       </c>
@@ -8686,6 +9570,9 @@
       <c r="B75" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="C75" t="s">
+        <v>1332</v>
+      </c>
       <c r="D75" s="5" t="s">
         <v>330</v>
       </c>
@@ -8698,6 +9585,9 @@
       <c r="B76" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="C76" t="s">
+        <v>1332</v>
+      </c>
       <c r="D76" s="5" t="s">
         <v>330</v>
       </c>
@@ -8710,6 +9600,9 @@
       <c r="B77" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="C77" t="s">
+        <v>348</v>
+      </c>
       <c r="D77" s="5" t="s">
         <v>337</v>
       </c>
@@ -8722,6 +9615,9 @@
       <c r="B78" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="C78" t="s">
+        <v>342</v>
+      </c>
       <c r="D78" s="5" t="s">
         <v>342</v>
       </c>
@@ -8734,6 +9630,9 @@
       <c r="B79" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="C79" t="s">
+        <v>1333</v>
+      </c>
       <c r="D79" s="5" t="s">
         <v>348</v>
       </c>
@@ -8746,6 +9645,9 @@
       <c r="B80" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="C80" t="s">
+        <v>1334</v>
+      </c>
       <c r="D80" s="5" t="s">
         <v>351</v>
       </c>
@@ -8758,6 +9660,9 @@
       <c r="B81" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="C81" t="s">
+        <v>1335</v>
+      </c>
       <c r="D81" s="5" t="s">
         <v>355</v>
       </c>
@@ -8770,6 +9675,9 @@
       <c r="B82" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="C82" t="s">
+        <v>1336</v>
+      </c>
       <c r="D82" s="5" t="s">
         <v>360</v>
       </c>
@@ -8782,6 +9690,9 @@
       <c r="B83" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="C83" t="s">
+        <v>364</v>
+      </c>
       <c r="D83" s="5" t="s">
         <v>364</v>
       </c>
@@ -8794,6 +9705,9 @@
       <c r="B84" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="C84" t="s">
+        <v>1337</v>
+      </c>
       <c r="D84" s="5" t="s">
         <v>368</v>
       </c>
@@ -8806,6 +9720,9 @@
       <c r="B85" s="2" t="s">
         <v>372</v>
       </c>
+      <c r="C85" t="s">
+        <v>372</v>
+      </c>
       <c r="D85" s="5" t="s">
         <v>372</v>
       </c>
@@ -8818,6 +9735,9 @@
       <c r="B86" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="C86" t="s">
+        <v>377</v>
+      </c>
       <c r="D86" s="5" t="s">
         <v>377</v>
       </c>
@@ -8830,6 +9750,9 @@
       <c r="B87" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="C87" t="s">
+        <v>1338</v>
+      </c>
       <c r="D87" s="5" t="s">
         <v>382</v>
       </c>
@@ -8842,6 +9765,9 @@
       <c r="B88" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="C88" t="s">
+        <v>1339</v>
+      </c>
       <c r="D88" s="5" t="s">
         <v>387</v>
       </c>
@@ -8854,6 +9780,9 @@
       <c r="B89" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="C89" t="s">
+        <v>391</v>
+      </c>
       <c r="D89" s="5" t="s">
         <v>391</v>
       </c>
@@ -8866,6 +9795,9 @@
       <c r="B90" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="C90" t="s">
+        <v>1340</v>
+      </c>
       <c r="D90" s="5" t="s">
         <v>395</v>
       </c>
@@ -8878,6 +9810,9 @@
       <c r="B91" s="2" t="s">
         <v>400</v>
       </c>
+      <c r="C91" t="s">
+        <v>1341</v>
+      </c>
       <c r="D91" s="5" t="s">
         <v>400</v>
       </c>
@@ -8890,6 +9825,9 @@
       <c r="B92" s="2" t="s">
         <v>405</v>
       </c>
+      <c r="C92" t="s">
+        <v>405</v>
+      </c>
       <c r="D92" s="5" t="s">
         <v>405</v>
       </c>
@@ -8902,6 +9840,9 @@
       <c r="B93" s="2" t="s">
         <v>408</v>
       </c>
+      <c r="C93" t="s">
+        <v>1342</v>
+      </c>
       <c r="D93" s="5" t="s">
         <v>408</v>
       </c>
@@ -8914,6 +9855,9 @@
       <c r="B94" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="C94" t="s">
+        <v>1343</v>
+      </c>
       <c r="D94" s="5" t="s">
         <v>410</v>
       </c>
@@ -8926,6 +9870,9 @@
       <c r="B95" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="C95" t="s">
+        <v>1344</v>
+      </c>
       <c r="D95" s="5" t="s">
         <v>414</v>
       </c>
@@ -8938,6 +9885,9 @@
       <c r="B96" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="C96" t="s">
+        <v>418</v>
+      </c>
       <c r="D96" s="5" t="s">
         <v>418</v>
       </c>
@@ -8950,6 +9900,9 @@
       <c r="B97" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="C97" t="s">
+        <v>1345</v>
+      </c>
       <c r="D97" s="5" t="s">
         <v>422</v>
       </c>
@@ -8962,6 +9915,9 @@
       <c r="B98" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="C98" t="s">
+        <v>1346</v>
+      </c>
       <c r="D98" s="5" t="s">
         <v>422</v>
       </c>
@@ -8974,6 +9930,9 @@
       <c r="B99" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="C99" t="s">
+        <v>1347</v>
+      </c>
       <c r="D99" s="5" t="s">
         <v>430</v>
       </c>
@@ -8986,6 +9945,9 @@
       <c r="B100" s="2" t="s">
         <v>434</v>
       </c>
+      <c r="C100" t="s">
+        <v>434</v>
+      </c>
       <c r="D100" s="5" t="s">
         <v>434</v>
       </c>
@@ -8998,6 +9960,9 @@
       <c r="B101" s="2" t="s">
         <v>438</v>
       </c>
+      <c r="C101" t="s">
+        <v>438</v>
+      </c>
       <c r="D101" s="5" t="s">
         <v>438</v>
       </c>
@@ -9010,6 +9975,9 @@
       <c r="B102" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="C102" t="s">
+        <v>443</v>
+      </c>
       <c r="D102" s="5" t="s">
         <v>443</v>
       </c>
@@ -9022,6 +9990,9 @@
       <c r="B103" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="C103" t="s">
+        <v>447</v>
+      </c>
       <c r="D103" s="5" t="s">
         <v>447</v>
       </c>
@@ -9034,6 +10005,9 @@
       <c r="B104" s="2" t="s">
         <v>452</v>
       </c>
+      <c r="C104" t="s">
+        <v>452</v>
+      </c>
       <c r="D104" s="5" t="s">
         <v>452</v>
       </c>
@@ -9046,6 +10020,9 @@
       <c r="B105" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="C105" t="s">
+        <v>1348</v>
+      </c>
       <c r="D105" s="5" t="s">
         <v>457</v>
       </c>
@@ -9058,6 +10035,9 @@
       <c r="B106" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="C106" t="s">
+        <v>1348</v>
+      </c>
       <c r="D106" s="5" t="s">
         <v>457</v>
       </c>
@@ -9070,6 +10050,9 @@
       <c r="B107" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="C107" t="s">
+        <v>1349</v>
+      </c>
       <c r="D107" s="5" t="s">
         <v>463</v>
       </c>
@@ -9082,6 +10065,9 @@
       <c r="B108" s="2" t="s">
         <v>468</v>
       </c>
+      <c r="C108" t="s">
+        <v>468</v>
+      </c>
       <c r="D108" s="5" t="s">
         <v>468</v>
       </c>
@@ -9094,6 +10080,9 @@
       <c r="B109" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="C109" t="s">
+        <v>472</v>
+      </c>
       <c r="D109" s="5" t="s">
         <v>472</v>
       </c>
@@ -9106,6 +10095,9 @@
       <c r="B110" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="C110" t="s">
+        <v>477</v>
+      </c>
       <c r="D110" s="5" t="s">
         <v>477</v>
       </c>
@@ -9118,6 +10110,9 @@
       <c r="B111" s="2" t="s">
         <v>481</v>
       </c>
+      <c r="C111" t="s">
+        <v>481</v>
+      </c>
       <c r="D111" s="5" t="s">
         <v>481</v>
       </c>
@@ -9130,6 +10125,9 @@
       <c r="B112" s="2" t="s">
         <v>486</v>
       </c>
+      <c r="C112" t="s">
+        <v>486</v>
+      </c>
       <c r="D112" s="5" t="s">
         <v>486</v>
       </c>
@@ -9142,6 +10140,9 @@
       <c r="B113" s="2" t="s">
         <v>490</v>
       </c>
+      <c r="C113" t="s">
+        <v>1350</v>
+      </c>
       <c r="D113" s="5" t="s">
         <v>490</v>
       </c>
@@ -9154,6 +10155,9 @@
       <c r="B114" s="2" t="s">
         <v>494</v>
       </c>
+      <c r="C114" t="s">
+        <v>1351</v>
+      </c>
       <c r="D114" s="5" t="s">
         <v>494</v>
       </c>
@@ -9166,6 +10170,9 @@
       <c r="B115" s="2" t="s">
         <v>499</v>
       </c>
+      <c r="C115" t="s">
+        <v>1352</v>
+      </c>
       <c r="D115" s="5" t="s">
         <v>499</v>
       </c>
@@ -9178,6 +10185,9 @@
       <c r="B116" s="2" t="s">
         <v>504</v>
       </c>
+      <c r="C116" t="s">
+        <v>1353</v>
+      </c>
       <c r="D116" s="5" t="s">
         <v>504</v>
       </c>
@@ -9190,6 +10200,9 @@
       <c r="B117" s="2" t="s">
         <v>509</v>
       </c>
+      <c r="C117" t="s">
+        <v>509</v>
+      </c>
       <c r="D117" s="5" t="s">
         <v>509</v>
       </c>
@@ -9202,6 +10215,9 @@
       <c r="B118" s="2" t="s">
         <v>514</v>
       </c>
+      <c r="C118" t="s">
+        <v>514</v>
+      </c>
       <c r="D118" s="5" t="s">
         <v>514</v>
       </c>
@@ -9214,6 +10230,9 @@
       <c r="B119" s="2" t="s">
         <v>520</v>
       </c>
+      <c r="C119" t="s">
+        <v>520</v>
+      </c>
       <c r="D119" s="5" t="s">
         <v>520</v>
       </c>
@@ -9226,6 +10245,9 @@
       <c r="B120" s="2" t="s">
         <v>525</v>
       </c>
+      <c r="C120" t="s">
+        <v>525</v>
+      </c>
       <c r="D120" s="5" t="s">
         <v>525</v>
       </c>
@@ -9238,6 +10260,9 @@
       <c r="B121" s="2" t="s">
         <v>530</v>
       </c>
+      <c r="C121" t="s">
+        <v>530</v>
+      </c>
       <c r="D121" s="5" t="s">
         <v>530</v>
       </c>
@@ -9250,6 +10275,9 @@
       <c r="B122" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="C122" t="s">
+        <v>534</v>
+      </c>
       <c r="D122" s="5" t="s">
         <v>534</v>
       </c>
@@ -9262,6 +10290,9 @@
       <c r="B123" s="2" t="s">
         <v>536</v>
       </c>
+      <c r="C123" t="s">
+        <v>1354</v>
+      </c>
       <c r="D123" s="5" t="s">
         <v>536</v>
       </c>
@@ -9274,6 +10305,9 @@
       <c r="B124" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="C124" t="s">
+        <v>540</v>
+      </c>
       <c r="D124" s="5" t="s">
         <v>540</v>
       </c>
@@ -9286,6 +10320,9 @@
       <c r="B125" s="2" t="s">
         <v>544</v>
       </c>
+      <c r="C125" t="s">
+        <v>544</v>
+      </c>
       <c r="D125" s="5" t="s">
         <v>544</v>
       </c>
@@ -9298,6 +10335,9 @@
       <c r="B126" s="2" t="s">
         <v>549</v>
       </c>
+      <c r="C126" t="s">
+        <v>549</v>
+      </c>
       <c r="D126" s="5" t="s">
         <v>549</v>
       </c>
@@ -9310,6 +10350,9 @@
       <c r="B127" s="2" t="s">
         <v>554</v>
       </c>
+      <c r="C127" t="s">
+        <v>1355</v>
+      </c>
       <c r="D127" s="5" t="s">
         <v>554</v>
       </c>
@@ -9322,6 +10365,9 @@
       <c r="B128" s="2" t="s">
         <v>558</v>
       </c>
+      <c r="C128" t="s">
+        <v>1356</v>
+      </c>
       <c r="D128" s="5" t="s">
         <v>558</v>
       </c>
@@ -9334,6 +10380,9 @@
       <c r="B129" s="2" t="s">
         <v>562</v>
       </c>
+      <c r="C129" t="s">
+        <v>1357</v>
+      </c>
       <c r="D129" s="5" t="s">
         <v>562</v>
       </c>
@@ -9346,6 +10395,9 @@
       <c r="B130" s="2" t="s">
         <v>567</v>
       </c>
+      <c r="C130" t="s">
+        <v>1358</v>
+      </c>
       <c r="D130" s="5" t="s">
         <v>567</v>
       </c>
@@ -9358,6 +10410,9 @@
       <c r="B131" s="2" t="s">
         <v>572</v>
       </c>
+      <c r="C131" t="s">
+        <v>572</v>
+      </c>
       <c r="D131" s="5" t="s">
         <v>572</v>
       </c>
@@ -9370,6 +10425,9 @@
       <c r="B132" s="2" t="s">
         <v>577</v>
       </c>
+      <c r="C132" t="s">
+        <v>1359</v>
+      </c>
       <c r="D132" s="5" t="s">
         <v>577</v>
       </c>
@@ -9382,6 +10440,9 @@
       <c r="B133" s="2" t="s">
         <v>581</v>
       </c>
+      <c r="C133" t="s">
+        <v>581</v>
+      </c>
       <c r="D133" s="5" t="s">
         <v>581</v>
       </c>
@@ -9394,6 +10455,9 @@
       <c r="B134" s="2" t="s">
         <v>585</v>
       </c>
+      <c r="C134" t="s">
+        <v>1360</v>
+      </c>
       <c r="D134" s="5" t="s">
         <v>585</v>
       </c>
@@ -9406,6 +10470,9 @@
       <c r="B135" s="2" t="s">
         <v>590</v>
       </c>
+      <c r="C135" t="s">
+        <v>1361</v>
+      </c>
       <c r="D135" s="5" t="s">
         <v>590</v>
       </c>
@@ -9418,6 +10485,9 @@
       <c r="B136" s="2" t="s">
         <v>595</v>
       </c>
+      <c r="C136" t="s">
+        <v>1362</v>
+      </c>
       <c r="D136" s="5" t="s">
         <v>595</v>
       </c>
@@ -9430,6 +10500,9 @@
       <c r="B137" s="2" t="s">
         <v>599</v>
       </c>
+      <c r="C137" t="s">
+        <v>599</v>
+      </c>
       <c r="D137" s="5" t="s">
         <v>599</v>
       </c>
@@ -9442,6 +10515,9 @@
       <c r="B138" s="2" t="s">
         <v>604</v>
       </c>
+      <c r="C138" t="s">
+        <v>1363</v>
+      </c>
       <c r="D138" s="5" t="s">
         <v>604</v>
       </c>
@@ -9454,6 +10530,9 @@
       <c r="B139" s="2" t="s">
         <v>609</v>
       </c>
+      <c r="C139" t="s">
+        <v>1364</v>
+      </c>
       <c r="D139" s="5" t="s">
         <v>609</v>
       </c>
@@ -9466,6 +10545,9 @@
       <c r="B140" s="2" t="s">
         <v>613</v>
       </c>
+      <c r="C140" t="s">
+        <v>1365</v>
+      </c>
       <c r="D140" s="5" t="s">
         <v>613</v>
       </c>
@@ -9478,6 +10560,9 @@
       <c r="B141" s="2" t="s">
         <v>618</v>
       </c>
+      <c r="C141" t="s">
+        <v>1366</v>
+      </c>
       <c r="D141" s="5" t="s">
         <v>618</v>
       </c>
@@ -9490,6 +10575,9 @@
       <c r="B142" s="2" t="s">
         <v>621</v>
       </c>
+      <c r="C142" t="s">
+        <v>1367</v>
+      </c>
       <c r="D142" s="5" t="s">
         <v>621</v>
       </c>
@@ -9502,6 +10590,9 @@
       <c r="B143" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="C143" t="s">
+        <v>626</v>
+      </c>
       <c r="D143" s="5" t="s">
         <v>626</v>
       </c>
@@ -9514,6 +10605,9 @@
       <c r="B144" s="2" t="s">
         <v>631</v>
       </c>
+      <c r="C144" t="s">
+        <v>1368</v>
+      </c>
       <c r="D144" s="5" t="s">
         <v>631</v>
       </c>
@@ -9526,6 +10620,9 @@
       <c r="B145" s="2" t="s">
         <v>635</v>
       </c>
+      <c r="C145" t="s">
+        <v>1369</v>
+      </c>
       <c r="D145" s="5" t="s">
         <v>635</v>
       </c>
@@ -9538,6 +10635,9 @@
       <c r="B146" s="2" t="s">
         <v>638</v>
       </c>
+      <c r="C146" t="s">
+        <v>1370</v>
+      </c>
       <c r="D146" s="5" t="s">
         <v>638</v>
       </c>
@@ -9550,6 +10650,9 @@
       <c r="B147" s="2" t="s">
         <v>642</v>
       </c>
+      <c r="C147" t="s">
+        <v>1371</v>
+      </c>
       <c r="D147" s="5" t="s">
         <v>642</v>
       </c>
@@ -9562,6 +10665,9 @@
       <c r="B148" s="2" t="s">
         <v>647</v>
       </c>
+      <c r="C148" t="s">
+        <v>647</v>
+      </c>
       <c r="D148" s="5" t="s">
         <v>647</v>
       </c>
@@ -9574,6 +10680,9 @@
       <c r="B149" s="2" t="s">
         <v>651</v>
       </c>
+      <c r="C149" t="s">
+        <v>651</v>
+      </c>
       <c r="D149" s="5" t="s">
         <v>651</v>
       </c>
@@ -9586,6 +10695,9 @@
       <c r="B150" s="2" t="s">
         <v>656</v>
       </c>
+      <c r="C150" t="s">
+        <v>1372</v>
+      </c>
       <c r="D150" s="5" t="s">
         <v>656</v>
       </c>
@@ -9598,6 +10710,9 @@
       <c r="B151" s="2" t="s">
         <v>659</v>
       </c>
+      <c r="C151" t="s">
+        <v>1373</v>
+      </c>
       <c r="D151" s="5" t="s">
         <v>659</v>
       </c>
@@ -9610,6 +10725,9 @@
       <c r="B152" s="2" t="s">
         <v>663</v>
       </c>
+      <c r="C152" t="s">
+        <v>1374</v>
+      </c>
       <c r="D152" s="5" t="s">
         <v>663</v>
       </c>
@@ -9622,6 +10740,9 @@
       <c r="B153" s="2" t="s">
         <v>668</v>
       </c>
+      <c r="C153" t="s">
+        <v>668</v>
+      </c>
       <c r="D153" s="5" t="s">
         <v>668</v>
       </c>
@@ -9634,6 +10755,9 @@
       <c r="B154" s="2" t="s">
         <v>672</v>
       </c>
+      <c r="C154" t="s">
+        <v>672</v>
+      </c>
       <c r="D154" s="5" t="s">
         <v>672</v>
       </c>
@@ -9646,6 +10770,9 @@
       <c r="B155" s="2" t="s">
         <v>677</v>
       </c>
+      <c r="C155" t="s">
+        <v>1375</v>
+      </c>
       <c r="D155" s="5" t="s">
         <v>677</v>
       </c>
@@ -9658,6 +10785,9 @@
       <c r="B156" s="2" t="s">
         <v>682</v>
       </c>
+      <c r="C156" t="s">
+        <v>1376</v>
+      </c>
       <c r="D156" s="5" t="s">
         <v>682</v>
       </c>
@@ -9670,6 +10800,9 @@
       <c r="B157" s="2" t="s">
         <v>686</v>
       </c>
+      <c r="C157" t="s">
+        <v>686</v>
+      </c>
       <c r="D157" s="5" t="s">
         <v>686</v>
       </c>
@@ -9682,6 +10815,9 @@
       <c r="B158" s="2" t="s">
         <v>689</v>
       </c>
+      <c r="C158" t="s">
+        <v>1377</v>
+      </c>
       <c r="D158" s="5" t="s">
         <v>689</v>
       </c>
@@ -9694,6 +10830,9 @@
       <c r="B159" s="2" t="s">
         <v>694</v>
       </c>
+      <c r="C159" t="s">
+        <v>1378</v>
+      </c>
       <c r="D159" s="5" t="s">
         <v>694</v>
       </c>
@@ -9706,6 +10845,9 @@
       <c r="B160" s="2" t="s">
         <v>699</v>
       </c>
+      <c r="C160" t="s">
+        <v>699</v>
+      </c>
       <c r="D160" s="5" t="s">
         <v>699</v>
       </c>
@@ -9718,6 +10860,9 @@
       <c r="B161" s="2" t="s">
         <v>704</v>
       </c>
+      <c r="C161" t="s">
+        <v>1379</v>
+      </c>
       <c r="D161" s="5" t="s">
         <v>704</v>
       </c>
@@ -9730,6 +10875,9 @@
       <c r="B162" s="2" t="s">
         <v>709</v>
       </c>
+      <c r="C162" t="s">
+        <v>709</v>
+      </c>
       <c r="D162" s="5" t="s">
         <v>709</v>
       </c>
@@ -9742,6 +10890,9 @@
       <c r="B163" s="2" t="s">
         <v>714</v>
       </c>
+      <c r="C163" t="s">
+        <v>714</v>
+      </c>
       <c r="D163" s="5" t="s">
         <v>714</v>
       </c>
@@ -9754,6 +10905,9 @@
       <c r="B164" s="2" t="s">
         <v>719</v>
       </c>
+      <c r="C164" t="s">
+        <v>719</v>
+      </c>
       <c r="D164" s="5" t="s">
         <v>719</v>
       </c>
@@ -9766,6 +10920,9 @@
       <c r="B165" s="2" t="s">
         <v>723</v>
       </c>
+      <c r="C165" t="s">
+        <v>724</v>
+      </c>
       <c r="D165" s="5" t="s">
         <v>723</v>
       </c>
@@ -9778,6 +10935,9 @@
       <c r="B166" s="2" t="s">
         <v>728</v>
       </c>
+      <c r="C166" t="s">
+        <v>729</v>
+      </c>
       <c r="D166" s="5" t="s">
         <v>728</v>
       </c>
@@ -9790,6 +10950,9 @@
       <c r="B167" s="2" t="s">
         <v>733</v>
       </c>
+      <c r="C167" t="s">
+        <v>734</v>
+      </c>
       <c r="D167" s="5" t="s">
         <v>733</v>
       </c>
@@ -9802,6 +10965,9 @@
       <c r="B168" s="2" t="s">
         <v>736</v>
       </c>
+      <c r="C168" t="s">
+        <v>736</v>
+      </c>
       <c r="D168" s="5" t="s">
         <v>736</v>
       </c>
@@ -9814,6 +10980,9 @@
       <c r="B169" s="2" t="s">
         <v>740</v>
       </c>
+      <c r="C169" t="s">
+        <v>741</v>
+      </c>
       <c r="D169" s="5" t="s">
         <v>740</v>
       </c>
@@ -9826,6 +10995,9 @@
       <c r="B170" s="2" t="s">
         <v>745</v>
       </c>
+      <c r="C170" t="s">
+        <v>746</v>
+      </c>
       <c r="D170" s="5" t="s">
         <v>745</v>
       </c>
@@ -9838,6 +11010,9 @@
       <c r="B171" s="2" t="s">
         <v>750</v>
       </c>
+      <c r="C171" t="s">
+        <v>751</v>
+      </c>
       <c r="D171" s="5" t="s">
         <v>750</v>
       </c>
@@ -9850,6 +11025,9 @@
       <c r="B172" s="2" t="s">
         <v>754</v>
       </c>
+      <c r="C172" t="s">
+        <v>754</v>
+      </c>
       <c r="D172" s="5" t="s">
         <v>754</v>
       </c>
@@ -9862,6 +11040,9 @@
       <c r="B173" s="2" t="s">
         <v>758</v>
       </c>
+      <c r="C173" t="s">
+        <v>759</v>
+      </c>
       <c r="D173" s="5" t="s">
         <v>758</v>
       </c>
@@ -9874,6 +11055,9 @@
       <c r="B174" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="C174" t="s">
+        <v>257</v>
+      </c>
       <c r="D174" s="5" t="s">
         <v>257</v>
       </c>
@@ -9886,6 +11070,9 @@
       <c r="B175" s="2" t="s">
         <v>766</v>
       </c>
+      <c r="C175" t="s">
+        <v>767</v>
+      </c>
       <c r="D175" s="5" t="s">
         <v>766</v>
       </c>
@@ -9898,6 +11085,9 @@
       <c r="B176" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="C176" t="s">
+        <v>348</v>
+      </c>
       <c r="D176" s="5" t="s">
         <v>337</v>
       </c>
@@ -9910,6 +11100,9 @@
       <c r="B177" s="2" t="s">
         <v>773</v>
       </c>
+      <c r="C177" t="s">
+        <v>773</v>
+      </c>
       <c r="D177" s="5" t="s">
         <v>773</v>
       </c>
@@ -9922,6 +11115,9 @@
       <c r="B178" s="2" t="s">
         <v>777</v>
       </c>
+      <c r="C178" t="s">
+        <v>777</v>
+      </c>
       <c r="D178" s="5" t="s">
         <v>777</v>
       </c>
@@ -9934,6 +11130,9 @@
       <c r="B179" s="2" t="s">
         <v>781</v>
       </c>
+      <c r="C179" t="s">
+        <v>781</v>
+      </c>
       <c r="D179" s="5" t="s">
         <v>781</v>
       </c>
@@ -9946,6 +11145,9 @@
       <c r="B180" s="2" t="s">
         <v>785</v>
       </c>
+      <c r="C180" t="s">
+        <v>1380</v>
+      </c>
       <c r="D180" s="5" t="s">
         <v>785</v>
       </c>
@@ -9958,6 +11160,9 @@
       <c r="B181" s="2" t="s">
         <v>790</v>
       </c>
+      <c r="C181" t="s">
+        <v>791</v>
+      </c>
       <c r="D181" s="5" t="s">
         <v>790</v>
       </c>
@@ -9970,6 +11175,9 @@
       <c r="B182" s="2" t="s">
         <v>795</v>
       </c>
+      <c r="C182" t="s">
+        <v>796</v>
+      </c>
       <c r="D182" s="5" t="s">
         <v>795</v>
       </c>
@@ -9982,6 +11190,9 @@
       <c r="B183" s="2" t="s">
         <v>798</v>
       </c>
+      <c r="C183" t="s">
+        <v>799</v>
+      </c>
       <c r="D183" s="5" t="s">
         <v>798</v>
       </c>
@@ -9994,6 +11205,9 @@
       <c r="B184" s="2" t="s">
         <v>803</v>
       </c>
+      <c r="C184" t="s">
+        <v>803</v>
+      </c>
       <c r="D184" s="5" t="s">
         <v>803</v>
       </c>
@@ -10006,6 +11220,9 @@
       <c r="B185" s="2" t="s">
         <v>807</v>
       </c>
+      <c r="C185" t="s">
+        <v>808</v>
+      </c>
       <c r="D185" s="5" t="s">
         <v>807</v>
       </c>
@@ -10018,6 +11235,9 @@
       <c r="B186" s="2" t="s">
         <v>812</v>
       </c>
+      <c r="C186" t="s">
+        <v>813</v>
+      </c>
       <c r="D186" s="5" t="s">
         <v>812</v>
       </c>
@@ -10030,6 +11250,9 @@
       <c r="B187" s="2" t="s">
         <v>817</v>
       </c>
+      <c r="C187" t="s">
+        <v>817</v>
+      </c>
       <c r="D187" s="5" t="s">
         <v>817</v>
       </c>
@@ -10042,6 +11265,9 @@
       <c r="B188" s="2" t="s">
         <v>819</v>
       </c>
+      <c r="C188" t="s">
+        <v>820</v>
+      </c>
       <c r="D188" s="5" t="s">
         <v>819</v>
       </c>
@@ -10054,6 +11280,9 @@
       <c r="B189" s="2" t="s">
         <v>823</v>
       </c>
+      <c r="C189" t="s">
+        <v>824</v>
+      </c>
       <c r="D189" s="5" t="s">
         <v>823</v>
       </c>
@@ -10066,6 +11295,9 @@
       <c r="B190" s="2" t="s">
         <v>828</v>
       </c>
+      <c r="C190" t="s">
+        <v>828</v>
+      </c>
       <c r="D190" s="5" t="s">
         <v>828</v>
       </c>
@@ -10078,6 +11310,9 @@
       <c r="B191" s="2" t="s">
         <v>832</v>
       </c>
+      <c r="C191" t="s">
+        <v>832</v>
+      </c>
       <c r="D191" s="5" t="s">
         <v>832</v>
       </c>
@@ -10090,6 +11325,9 @@
       <c r="B192" s="2" t="s">
         <v>836</v>
       </c>
+      <c r="C192" t="s">
+        <v>837</v>
+      </c>
       <c r="D192" s="5" t="s">
         <v>836</v>
       </c>
@@ -10102,6 +11340,9 @@
       <c r="B193" s="2" t="s">
         <v>841</v>
       </c>
+      <c r="C193" t="s">
+        <v>841</v>
+      </c>
       <c r="D193" s="5" t="s">
         <v>841</v>
       </c>
@@ -10114,6 +11355,9 @@
       <c r="B194" s="2" t="s">
         <v>845</v>
       </c>
+      <c r="C194" t="s">
+        <v>846</v>
+      </c>
       <c r="D194" s="5" t="s">
         <v>845</v>
       </c>
@@ -10126,6 +11370,9 @@
       <c r="B195" s="2" t="s">
         <v>850</v>
       </c>
+      <c r="C195" t="s">
+        <v>851</v>
+      </c>
       <c r="D195" s="5" t="s">
         <v>850</v>
       </c>
@@ -10138,6 +11385,9 @@
       <c r="B196" s="2" t="s">
         <v>854</v>
       </c>
+      <c r="C196" t="s">
+        <v>855</v>
+      </c>
       <c r="D196" s="5" t="s">
         <v>854</v>
       </c>
@@ -10150,6 +11400,9 @@
       <c r="B197" s="2" t="s">
         <v>859</v>
       </c>
+      <c r="C197" t="s">
+        <v>216</v>
+      </c>
       <c r="D197" s="5" t="s">
         <v>859</v>
       </c>
@@ -10162,6 +11415,9 @@
       <c r="B198" s="2" t="s">
         <v>863</v>
       </c>
+      <c r="C198" t="s">
+        <v>863</v>
+      </c>
       <c r="D198" s="5" t="s">
         <v>863</v>
       </c>
@@ -10174,6 +11430,9 @@
       <c r="B199" s="2" t="s">
         <v>867</v>
       </c>
+      <c r="C199" t="s">
+        <v>867</v>
+      </c>
       <c r="D199" s="5" t="s">
         <v>867</v>
       </c>
@@ -10186,6 +11445,9 @@
       <c r="B200" s="2" t="s">
         <v>871</v>
       </c>
+      <c r="C200" t="s">
+        <v>872</v>
+      </c>
       <c r="D200" s="5" t="s">
         <v>871</v>
       </c>
@@ -10198,6 +11460,9 @@
       <c r="B201" s="2" t="s">
         <v>876</v>
       </c>
+      <c r="C201" t="s">
+        <v>877</v>
+      </c>
       <c r="D201" s="5" t="s">
         <v>876</v>
       </c>
@@ -10210,6 +11475,9 @@
       <c r="B202" s="2" t="s">
         <v>881</v>
       </c>
+      <c r="C202" t="s">
+        <v>882</v>
+      </c>
       <c r="D202" s="5" t="s">
         <v>881</v>
       </c>
@@ -10222,6 +11490,9 @@
       <c r="B203" s="2" t="s">
         <v>886</v>
       </c>
+      <c r="C203" t="s">
+        <v>887</v>
+      </c>
       <c r="D203" s="5" t="s">
         <v>886</v>
       </c>
@@ -10234,6 +11505,9 @@
       <c r="B204" s="2" t="s">
         <v>892</v>
       </c>
+      <c r="C204" t="s">
+        <v>893</v>
+      </c>
       <c r="D204" s="5" t="s">
         <v>892</v>
       </c>
@@ -10246,6 +11520,9 @@
       <c r="B205" s="2" t="s">
         <v>898</v>
       </c>
+      <c r="C205" t="s">
+        <v>899</v>
+      </c>
       <c r="D205" s="5" t="s">
         <v>898</v>
       </c>
@@ -10258,6 +11535,9 @@
       <c r="B206" s="2" t="s">
         <v>903</v>
       </c>
+      <c r="C206" t="s">
+        <v>903</v>
+      </c>
       <c r="D206" s="5" t="s">
         <v>903</v>
       </c>
@@ -10270,6 +11550,9 @@
       <c r="B207" s="2" t="s">
         <v>907</v>
       </c>
+      <c r="C207" t="s">
+        <v>908</v>
+      </c>
       <c r="D207" s="5" t="s">
         <v>907</v>
       </c>
@@ -10282,6 +11565,9 @@
       <c r="B208" s="2" t="s">
         <v>913</v>
       </c>
+      <c r="C208" t="s">
+        <v>914</v>
+      </c>
       <c r="D208" s="5" t="s">
         <v>913</v>
       </c>
@@ -10294,6 +11580,9 @@
       <c r="B209" s="2" t="s">
         <v>918</v>
       </c>
+      <c r="C209" t="s">
+        <v>919</v>
+      </c>
       <c r="D209" s="5" t="s">
         <v>918</v>
       </c>
@@ -10306,6 +11595,9 @@
       <c r="B210" s="2" t="s">
         <v>923</v>
       </c>
+      <c r="C210" t="s">
+        <v>924</v>
+      </c>
       <c r="D210" s="5" t="s">
         <v>923</v>
       </c>
@@ -10318,6 +11610,9 @@
       <c r="B211" s="2" t="s">
         <v>928</v>
       </c>
+      <c r="C211" t="s">
+        <v>929</v>
+      </c>
       <c r="D211" s="5" t="s">
         <v>928</v>
       </c>
@@ -10330,6 +11625,9 @@
       <c r="B212" s="2" t="s">
         <v>933</v>
       </c>
+      <c r="C212" t="s">
+        <v>934</v>
+      </c>
       <c r="D212" s="5" t="s">
         <v>933</v>
       </c>
@@ -10342,6 +11640,9 @@
       <c r="B213" s="2" t="s">
         <v>937</v>
       </c>
+      <c r="C213" t="s">
+        <v>937</v>
+      </c>
       <c r="D213" s="5" t="s">
         <v>937</v>
       </c>
@@ -10354,6 +11655,9 @@
       <c r="B214" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="C214" t="s">
+        <v>942</v>
+      </c>
       <c r="D214" s="5" t="s">
         <v>941</v>
       </c>
@@ -10366,6 +11670,9 @@
       <c r="B215" s="2" t="s">
         <v>946</v>
       </c>
+      <c r="C215" t="s">
+        <v>946</v>
+      </c>
       <c r="D215" s="5" t="s">
         <v>946</v>
       </c>
@@ -10378,6 +11685,9 @@
       <c r="B216" s="2" t="s">
         <v>950</v>
       </c>
+      <c r="C216" t="s">
+        <v>950</v>
+      </c>
       <c r="D216" s="5" t="s">
         <v>950</v>
       </c>
@@ -10390,6 +11700,9 @@
       <c r="B217" s="2" t="s">
         <v>953</v>
       </c>
+      <c r="C217" t="s">
+        <v>954</v>
+      </c>
       <c r="D217" s="5" t="s">
         <v>953</v>
       </c>
@@ -10402,6 +11715,9 @@
       <c r="B218" s="2" t="s">
         <v>957</v>
       </c>
+      <c r="C218" t="s">
+        <v>956</v>
+      </c>
       <c r="D218" s="5" t="s">
         <v>957</v>
       </c>
@@ -10414,6 +11730,9 @@
       <c r="B219" s="2" t="s">
         <v>959</v>
       </c>
+      <c r="C219" t="s">
+        <v>960</v>
+      </c>
       <c r="D219" s="5" t="s">
         <v>959</v>
       </c>
@@ -10426,6 +11745,9 @@
       <c r="B220" s="2" t="s">
         <v>964</v>
       </c>
+      <c r="C220" t="s">
+        <v>1381</v>
+      </c>
       <c r="D220" s="5" t="s">
         <v>964</v>
       </c>
@@ -10438,6 +11760,9 @@
       <c r="B221" s="2" t="s">
         <v>969</v>
       </c>
+      <c r="C221" t="s">
+        <v>970</v>
+      </c>
       <c r="D221" s="5" t="s">
         <v>969</v>
       </c>
@@ -10450,6 +11775,9 @@
       <c r="B222" s="2" t="s">
         <v>974</v>
       </c>
+      <c r="C222" t="s">
+        <v>975</v>
+      </c>
       <c r="D222" s="5" t="s">
         <v>974</v>
       </c>
@@ -10462,6 +11790,9 @@
       <c r="B223" s="2" t="s">
         <v>979</v>
       </c>
+      <c r="C223" t="s">
+        <v>979</v>
+      </c>
       <c r="D223" s="5" t="s">
         <v>979</v>
       </c>
@@ -10474,6 +11805,9 @@
       <c r="B224" s="2" t="s">
         <v>983</v>
       </c>
+      <c r="C224" t="s">
+        <v>983</v>
+      </c>
       <c r="D224" s="5" t="s">
         <v>983</v>
       </c>
@@ -10486,6 +11820,9 @@
       <c r="B225" s="2" t="s">
         <v>987</v>
       </c>
+      <c r="C225" t="s">
+        <v>988</v>
+      </c>
       <c r="D225" s="5" t="s">
         <v>987</v>
       </c>
@@ -10498,6 +11835,9 @@
       <c r="B226" s="2" t="s">
         <v>992</v>
       </c>
+      <c r="C226" t="s">
+        <v>993</v>
+      </c>
       <c r="D226" s="5" t="s">
         <v>992</v>
       </c>
@@ -10510,6 +11850,9 @@
       <c r="B227" s="2" t="s">
         <v>997</v>
       </c>
+      <c r="C227" t="s">
+        <v>998</v>
+      </c>
       <c r="D227" s="5" t="s">
         <v>997</v>
       </c>
@@ -10522,6 +11865,9 @@
       <c r="B228" s="2" t="s">
         <v>1002</v>
       </c>
+      <c r="C228" t="s">
+        <v>1003</v>
+      </c>
       <c r="D228" s="5" t="s">
         <v>1002</v>
       </c>
@@ -10534,6 +11880,9 @@
       <c r="B229" s="2" t="s">
         <v>1007</v>
       </c>
+      <c r="C229" t="s">
+        <v>1008</v>
+      </c>
       <c r="D229" s="5" t="s">
         <v>1007</v>
       </c>
@@ -10546,6 +11895,9 @@
       <c r="B230" s="2" t="s">
         <v>1012</v>
       </c>
+      <c r="C230" t="s">
+        <v>1012</v>
+      </c>
       <c r="D230" s="5" t="s">
         <v>1012</v>
       </c>
@@ -10558,6 +11910,9 @@
       <c r="B231" s="2" t="s">
         <v>1016</v>
       </c>
+      <c r="C231" t="s">
+        <v>1016</v>
+      </c>
       <c r="D231" s="5" t="s">
         <v>1016</v>
       </c>
@@ -10570,6 +11925,9 @@
       <c r="B232" s="2" t="s">
         <v>913</v>
       </c>
+      <c r="C232" t="s">
+        <v>914</v>
+      </c>
       <c r="D232" s="5" t="s">
         <v>913</v>
       </c>
@@ -10582,6 +11940,9 @@
       <c r="B233" s="2" t="s">
         <v>1021</v>
       </c>
+      <c r="C233" t="s">
+        <v>914</v>
+      </c>
       <c r="D233" s="5" t="s">
         <v>1021</v>
       </c>
@@ -10594,6 +11955,9 @@
       <c r="B234" s="2" t="s">
         <v>1026</v>
       </c>
+      <c r="C234" t="s">
+        <v>929</v>
+      </c>
       <c r="D234" s="5" t="s">
         <v>1026</v>
       </c>
@@ -10606,6 +11970,9 @@
       <c r="B235" s="2" t="s">
         <v>1028</v>
       </c>
+      <c r="C235" t="s">
+        <v>1029</v>
+      </c>
       <c r="D235" s="5" t="s">
         <v>1028</v>
       </c>
@@ -10618,6 +11985,9 @@
       <c r="B236" s="2" t="s">
         <v>1033</v>
       </c>
+      <c r="C236" t="s">
+        <v>1033</v>
+      </c>
       <c r="D236" s="5" t="s">
         <v>1033</v>
       </c>
@@ -10630,6 +12000,9 @@
       <c r="B237" s="2" t="s">
         <v>1037</v>
       </c>
+      <c r="C237" t="s">
+        <v>1038</v>
+      </c>
       <c r="D237" s="5" t="s">
         <v>1037</v>
       </c>
@@ -10642,6 +12015,9 @@
       <c r="B238" s="2" t="s">
         <v>1042</v>
       </c>
+      <c r="C238" t="s">
+        <v>1042</v>
+      </c>
       <c r="D238" s="5" t="s">
         <v>1042</v>
       </c>
@@ -10654,6 +12030,9 @@
       <c r="B239" s="2" t="s">
         <v>1046</v>
       </c>
+      <c r="C239" t="s">
+        <v>1047</v>
+      </c>
       <c r="D239" s="5" t="s">
         <v>1046</v>
       </c>
@@ -10666,6 +12045,9 @@
       <c r="B240" s="2" t="s">
         <v>1050</v>
       </c>
+      <c r="C240" t="s">
+        <v>1382</v>
+      </c>
       <c r="D240" s="5" t="s">
         <v>1050</v>
       </c>
@@ -10678,6 +12060,9 @@
       <c r="B241" s="2" t="s">
         <v>1055</v>
       </c>
+      <c r="C241" t="s">
+        <v>1055</v>
+      </c>
       <c r="D241" s="5" t="s">
         <v>1055</v>
       </c>
@@ -10690,6 +12075,9 @@
       <c r="B242" s="2" t="s">
         <v>1059</v>
       </c>
+      <c r="C242" t="s">
+        <v>1060</v>
+      </c>
       <c r="D242" s="5" t="s">
         <v>1059</v>
       </c>
@@ -10702,6 +12090,9 @@
       <c r="B243" s="2" t="s">
         <v>1064</v>
       </c>
+      <c r="C243" t="s">
+        <v>1064</v>
+      </c>
       <c r="D243" s="5" t="s">
         <v>1064</v>
       </c>
@@ -10714,6 +12105,9 @@
       <c r="B244" s="2" t="s">
         <v>1068</v>
       </c>
+      <c r="C244" t="s">
+        <v>1068</v>
+      </c>
       <c r="D244" s="5" t="s">
         <v>1068</v>
       </c>
@@ -10726,6 +12120,9 @@
       <c r="B245" s="2" t="s">
         <v>1072</v>
       </c>
+      <c r="C245" t="s">
+        <v>1073</v>
+      </c>
       <c r="D245" s="5" t="s">
         <v>1072</v>
       </c>
@@ -10738,6 +12135,9 @@
       <c r="B246" s="2" t="s">
         <v>1077</v>
       </c>
+      <c r="C246" t="s">
+        <v>1077</v>
+      </c>
       <c r="D246" s="5" t="s">
         <v>1077</v>
       </c>
@@ -10750,6 +12150,9 @@
       <c r="B247" s="2" t="s">
         <v>1081</v>
       </c>
+      <c r="C247" t="s">
+        <v>1081</v>
+      </c>
       <c r="D247" s="5" t="s">
         <v>1081</v>
       </c>
@@ -10762,6 +12165,9 @@
       <c r="B248" s="2" t="s">
         <v>1085</v>
       </c>
+      <c r="C248" t="s">
+        <v>1086</v>
+      </c>
       <c r="D248" s="5" t="s">
         <v>1085</v>
       </c>
@@ -10774,6 +12180,9 @@
       <c r="B249" s="2" t="s">
         <v>1090</v>
       </c>
+      <c r="C249" t="s">
+        <v>1091</v>
+      </c>
       <c r="D249" s="5" t="s">
         <v>1090</v>
       </c>
@@ -10786,6 +12195,9 @@
       <c r="B250" s="2" t="s">
         <v>1095</v>
       </c>
+      <c r="C250" t="s">
+        <v>1096</v>
+      </c>
       <c r="D250" s="5" t="s">
         <v>1095</v>
       </c>
@@ -10798,6 +12210,9 @@
       <c r="B251" s="2" t="s">
         <v>1100</v>
       </c>
+      <c r="C251" t="s">
+        <v>1101</v>
+      </c>
       <c r="D251" s="5" t="s">
         <v>1100</v>
       </c>
@@ -10810,6 +12225,9 @@
       <c r="B252" s="2" t="s">
         <v>1105</v>
       </c>
+      <c r="C252" t="s">
+        <v>1106</v>
+      </c>
       <c r="D252" s="5" t="s">
         <v>1105</v>
       </c>
@@ -10822,6 +12240,9 @@
       <c r="B253" s="2" t="s">
         <v>1110</v>
       </c>
+      <c r="C253" t="s">
+        <v>1110</v>
+      </c>
       <c r="D253" s="5" t="s">
         <v>1110</v>
       </c>
@@ -10834,6 +12255,9 @@
       <c r="B254" s="2" t="s">
         <v>1114</v>
       </c>
+      <c r="C254" t="s">
+        <v>1114</v>
+      </c>
       <c r="D254" s="5" t="s">
         <v>1114</v>
       </c>
@@ -10846,6 +12270,9 @@
       <c r="B255" s="2" t="s">
         <v>1118</v>
       </c>
+      <c r="C255" t="s">
+        <v>1118</v>
+      </c>
       <c r="D255" s="5" t="s">
         <v>1118</v>
       </c>
@@ -10858,6 +12285,9 @@
       <c r="B256" s="2" t="s">
         <v>1122</v>
       </c>
+      <c r="C256" t="s">
+        <v>1122</v>
+      </c>
       <c r="D256" s="5" t="s">
         <v>1122</v>
       </c>
@@ -10870,6 +12300,9 @@
       <c r="B257" s="2" t="s">
         <v>1126</v>
       </c>
+      <c r="C257" t="s">
+        <v>1127</v>
+      </c>
       <c r="D257" s="5" t="s">
         <v>1126</v>
       </c>
@@ -10882,6 +12315,9 @@
       <c r="B258" s="2" t="s">
         <v>1131</v>
       </c>
+      <c r="C258" t="s">
+        <v>1131</v>
+      </c>
       <c r="D258" s="5" t="s">
         <v>1131</v>
       </c>
@@ -10894,6 +12330,9 @@
       <c r="B259" s="2" t="s">
         <v>1135</v>
       </c>
+      <c r="C259" t="s">
+        <v>1135</v>
+      </c>
       <c r="D259" s="5" t="s">
         <v>1135</v>
       </c>
@@ -10906,6 +12345,9 @@
       <c r="B260" s="2" t="s">
         <v>1139</v>
       </c>
+      <c r="C260" t="s">
+        <v>1139</v>
+      </c>
       <c r="D260" s="5" t="s">
         <v>1139</v>
       </c>
@@ -10918,6 +12360,9 @@
       <c r="B261" s="2" t="s">
         <v>1143</v>
       </c>
+      <c r="C261" t="s">
+        <v>1143</v>
+      </c>
       <c r="D261" s="5" t="s">
         <v>1143</v>
       </c>
@@ -10930,6 +12375,9 @@
       <c r="B262" s="2" t="s">
         <v>1147</v>
       </c>
+      <c r="C262" t="s">
+        <v>1148</v>
+      </c>
       <c r="D262" s="5" t="s">
         <v>1147</v>
       </c>
@@ -10942,6 +12390,9 @@
       <c r="B263" s="2" t="s">
         <v>1152</v>
       </c>
+      <c r="C263" t="s">
+        <v>1152</v>
+      </c>
       <c r="D263" s="5" t="s">
         <v>1152</v>
       </c>
@@ -10954,6 +12405,9 @@
       <c r="B264" s="2" t="s">
         <v>1156</v>
       </c>
+      <c r="C264" t="s">
+        <v>1156</v>
+      </c>
       <c r="D264" s="5" t="s">
         <v>1156</v>
       </c>
@@ -10966,6 +12420,9 @@
       <c r="B265" s="2" t="s">
         <v>1160</v>
       </c>
+      <c r="C265" t="s">
+        <v>1160</v>
+      </c>
       <c r="D265" s="5" t="s">
         <v>1160</v>
       </c>
@@ -10978,6 +12435,9 @@
       <c r="B266" s="2" t="s">
         <v>1164</v>
       </c>
+      <c r="C266" t="s">
+        <v>1165</v>
+      </c>
       <c r="D266" s="5" t="s">
         <v>1164</v>
       </c>
@@ -10990,6 +12450,9 @@
       <c r="B267" s="2" t="s">
         <v>1169</v>
       </c>
+      <c r="C267" t="s">
+        <v>1169</v>
+      </c>
       <c r="D267" s="5" t="s">
         <v>1169</v>
       </c>
@@ -11002,6 +12465,9 @@
       <c r="B268" s="2" t="s">
         <v>1173</v>
       </c>
+      <c r="C268" t="s">
+        <v>1173</v>
+      </c>
       <c r="D268" s="5" t="s">
         <v>1173</v>
       </c>
@@ -11014,6 +12480,9 @@
       <c r="B269" s="2" t="s">
         <v>1177</v>
       </c>
+      <c r="C269" t="s">
+        <v>1177</v>
+      </c>
       <c r="D269" s="5" t="s">
         <v>1177</v>
       </c>
@@ -11026,6 +12495,9 @@
       <c r="B270" s="2" t="s">
         <v>1181</v>
       </c>
+      <c r="C270" t="s">
+        <v>1182</v>
+      </c>
       <c r="D270" s="5" t="s">
         <v>1181</v>
       </c>
@@ -11038,6 +12510,9 @@
       <c r="B271" s="2" t="s">
         <v>1187</v>
       </c>
+      <c r="C271" t="s">
+        <v>1188</v>
+      </c>
       <c r="D271" s="5" t="s">
         <v>1187</v>
       </c>
@@ -11050,6 +12525,9 @@
       <c r="B272" s="2" t="s">
         <v>1192</v>
       </c>
+      <c r="C272" t="s">
+        <v>1193</v>
+      </c>
       <c r="D272" s="5" t="s">
         <v>1192</v>
       </c>
@@ -11062,6 +12540,9 @@
       <c r="B273" s="2" t="s">
         <v>1197</v>
       </c>
+      <c r="C273" t="s">
+        <v>1198</v>
+      </c>
       <c r="D273" s="5" t="s">
         <v>1197</v>
       </c>
@@ -11074,6 +12555,9 @@
       <c r="B274" s="2" t="s">
         <v>1202</v>
       </c>
+      <c r="C274" t="s">
+        <v>1203</v>
+      </c>
       <c r="D274" s="5" t="s">
         <v>1202</v>
       </c>
@@ -11086,6 +12570,9 @@
       <c r="B275" s="2" t="s">
         <v>1207</v>
       </c>
+      <c r="C275" t="s">
+        <v>1208</v>
+      </c>
       <c r="D275" s="5" t="s">
         <v>1207</v>
       </c>
@@ -11098,6 +12585,9 @@
       <c r="B276" s="2" t="s">
         <v>1212</v>
       </c>
+      <c r="C276" t="s">
+        <v>1077</v>
+      </c>
       <c r="D276" s="5" t="s">
         <v>1212</v>
       </c>
@@ -11110,6 +12600,9 @@
       <c r="B277" s="2" t="s">
         <v>1217</v>
       </c>
+      <c r="C277" t="s">
+        <v>1217</v>
+      </c>
       <c r="D277" s="5" t="s">
         <v>1217</v>
       </c>
@@ -11122,6 +12615,9 @@
       <c r="B278" s="2" t="s">
         <v>1221</v>
       </c>
+      <c r="C278" t="s">
+        <v>1222</v>
+      </c>
       <c r="D278" s="5" t="s">
         <v>1221</v>
       </c>
@@ -11134,6 +12630,9 @@
       <c r="B279" s="2" t="s">
         <v>1212</v>
       </c>
+      <c r="C279" t="s">
+        <v>1212</v>
+      </c>
       <c r="D279" s="5" t="s">
         <v>1212</v>
       </c>
@@ -11146,6 +12645,9 @@
       <c r="B280" s="2" t="s">
         <v>1227</v>
       </c>
+      <c r="C280" t="s">
+        <v>1227</v>
+      </c>
       <c r="D280" s="5" t="s">
         <v>1227</v>
       </c>
@@ -11158,6 +12660,9 @@
       <c r="B281" s="2" t="s">
         <v>1231</v>
       </c>
+      <c r="C281" t="s">
+        <v>1231</v>
+      </c>
       <c r="D281" s="5" t="s">
         <v>1231</v>
       </c>
@@ -11170,6 +12675,9 @@
       <c r="B282" s="2" t="s">
         <v>1160</v>
       </c>
+      <c r="C282" t="s">
+        <v>1160</v>
+      </c>
       <c r="D282" s="5" t="s">
         <v>1160</v>
       </c>
@@ -11182,6 +12690,9 @@
       <c r="B283" s="2" t="s">
         <v>1237</v>
       </c>
+      <c r="C283" t="s">
+        <v>1383</v>
+      </c>
       <c r="D283" s="5" t="s">
         <v>1237</v>
       </c>
@@ -11194,6 +12705,9 @@
       <c r="B284" s="2" t="s">
         <v>1242</v>
       </c>
+      <c r="C284" t="s">
+        <v>1243</v>
+      </c>
       <c r="D284" s="5" t="s">
         <v>1242</v>
       </c>
@@ -11206,6 +12720,9 @@
       <c r="B285" s="2" t="s">
         <v>1247</v>
       </c>
+      <c r="C285" t="s">
+        <v>1247</v>
+      </c>
       <c r="D285" s="5" t="s">
         <v>1247</v>
       </c>
@@ -11218,6 +12735,9 @@
       <c r="B286" s="2" t="s">
         <v>1164</v>
       </c>
+      <c r="C286" t="s">
+        <v>1160</v>
+      </c>
       <c r="D286" s="5" t="s">
         <v>1164</v>
       </c>
@@ -11230,6 +12750,9 @@
       <c r="B287" s="2" t="s">
         <v>1254</v>
       </c>
+      <c r="C287" t="s">
+        <v>1255</v>
+      </c>
       <c r="D287" s="5" t="s">
         <v>1254</v>
       </c>
@@ -11242,6 +12765,9 @@
       <c r="B288" s="2" t="s">
         <v>1259</v>
       </c>
+      <c r="C288" t="s">
+        <v>1260</v>
+      </c>
       <c r="D288" s="5" t="s">
         <v>1259</v>
       </c>
@@ -11254,6 +12780,9 @@
       <c r="B289" s="2" t="s">
         <v>1264</v>
       </c>
+      <c r="C289" t="s">
+        <v>1265</v>
+      </c>
       <c r="D289" s="5" t="s">
         <v>1264</v>
       </c>
@@ -11264,6 +12793,9 @@
         <v>1268</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C290" t="s">
         <v>1269</v>
       </c>
       <c r="D290" s="5" t="s">
@@ -11280,7 +12812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2477882-9CB5-EB4D-95CD-01CDC9291620}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -15653,15 +17185,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E67304-EF9B-F24B-8CE3-91312022C083}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B141" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -15688,6 +17220,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
@@ -15700,6 +17235,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>1443</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -15712,6 +17250,9 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -15724,6 +17265,9 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>1444</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
@@ -15736,6 +17280,9 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
@@ -15748,6 +17295,9 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -15760,6 +17310,9 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
@@ -15772,6 +17325,9 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
@@ -15784,6 +17340,9 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
@@ -15796,6 +17355,9 @@
       <c r="B11" t="s">
         <v>47</v>
       </c>
+      <c r="C11" t="s">
+        <v>1445</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
@@ -15808,6 +17370,9 @@
       <c r="B12" t="s">
         <v>52</v>
       </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
       </c>
@@ -15820,6 +17385,9 @@
       <c r="B13" t="s">
         <v>58</v>
       </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
@@ -15832,6 +17400,9 @@
       <c r="B14" t="s">
         <v>62</v>
       </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
@@ -15844,6 +17415,9 @@
       <c r="B15" t="s">
         <v>66</v>
       </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>66</v>
       </c>
@@ -15856,6 +17430,9 @@
       <c r="B16" t="s">
         <v>70</v>
       </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
@@ -15868,6 +17445,9 @@
       <c r="B17" t="s">
         <v>75</v>
       </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>75</v>
       </c>
@@ -15880,6 +17460,9 @@
       <c r="B18" t="s">
         <v>80</v>
       </c>
+      <c r="C18" t="s">
+        <v>1446</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>80</v>
       </c>
@@ -15892,6 +17475,9 @@
       <c r="B19" t="s">
         <v>84</v>
       </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>84</v>
       </c>
@@ -15904,6 +17490,9 @@
       <c r="B20" t="s">
         <v>88</v>
       </c>
+      <c r="C20" t="s">
+        <v>1447</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>88</v>
       </c>
@@ -15916,6 +17505,9 @@
       <c r="B21" t="s">
         <v>90</v>
       </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>90</v>
       </c>
@@ -15928,6 +17520,9 @@
       <c r="B22" t="s">
         <v>95</v>
       </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>95</v>
       </c>
@@ -15940,6 +17535,9 @@
       <c r="B23" t="s">
         <v>100</v>
       </c>
+      <c r="C23" t="s">
+        <v>1448</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>100</v>
       </c>
@@ -15952,6 +17550,9 @@
       <c r="B24" t="s">
         <v>105</v>
       </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>105</v>
       </c>
@@ -15964,6 +17565,9 @@
       <c r="B25" t="s">
         <v>109</v>
       </c>
+      <c r="C25" t="s">
+        <v>1449</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>109</v>
       </c>
@@ -15976,6 +17580,9 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
+      <c r="C26" t="s">
+        <v>1450</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>113</v>
       </c>
@@ -15988,6 +17595,9 @@
       <c r="B27" t="s">
         <v>118</v>
       </c>
+      <c r="C27" t="s">
+        <v>1451</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>118</v>
       </c>
@@ -16000,6 +17610,9 @@
       <c r="B28" t="s">
         <v>121</v>
       </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
       <c r="D28" s="4" t="s">
         <v>121</v>
       </c>
@@ -16012,6 +17625,9 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>123</v>
       </c>
@@ -16024,6 +17640,9 @@
       <c r="B30" t="s">
         <v>128</v>
       </c>
+      <c r="C30" t="s">
+        <v>1423</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>128</v>
       </c>
@@ -16036,6 +17655,9 @@
       <c r="B31" t="s">
         <v>133</v>
       </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
       <c r="D31" s="4" t="s">
         <v>133</v>
       </c>
@@ -16048,6 +17670,9 @@
       <c r="B32" t="s">
         <v>138</v>
       </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>138</v>
       </c>
@@ -16060,6 +17685,9 @@
       <c r="B33" t="s">
         <v>142</v>
       </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>142</v>
       </c>
@@ -16072,6 +17700,9 @@
       <c r="B34" t="s">
         <v>146</v>
       </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
       <c r="D34" s="4" t="s">
         <v>146</v>
       </c>
@@ -16084,6 +17715,9 @@
       <c r="B35" t="s">
         <v>151</v>
       </c>
+      <c r="C35" t="s">
+        <v>1452</v>
+      </c>
       <c r="D35" s="4" t="s">
         <v>151</v>
       </c>
@@ -16096,6 +17730,9 @@
       <c r="B36" t="s">
         <v>156</v>
       </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
       <c r="D36" s="4" t="s">
         <v>156</v>
       </c>
@@ -16108,6 +17745,9 @@
       <c r="B37" t="s">
         <v>161</v>
       </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
       <c r="D37" s="4" t="s">
         <v>161</v>
       </c>
@@ -16120,6 +17760,9 @@
       <c r="B38" t="s">
         <v>166</v>
       </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
       <c r="D38" s="4" t="s">
         <v>166</v>
       </c>
@@ -16132,6 +17775,9 @@
       <c r="B39" t="s">
         <v>170</v>
       </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>170</v>
       </c>
@@ -16144,6 +17790,9 @@
       <c r="B40" t="s">
         <v>175</v>
       </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
       <c r="D40" s="4" t="s">
         <v>175</v>
       </c>
@@ -16156,6 +17805,9 @@
       <c r="B41" t="s">
         <v>179</v>
       </c>
+      <c r="C41" t="s">
+        <v>176</v>
+      </c>
       <c r="D41" s="4" t="s">
         <v>179</v>
       </c>
@@ -16168,6 +17820,9 @@
       <c r="B42" t="s">
         <v>184</v>
       </c>
+      <c r="C42" t="s">
+        <v>1453</v>
+      </c>
       <c r="D42" s="4" t="s">
         <v>184</v>
       </c>
@@ -16180,6 +17835,9 @@
       <c r="B43" t="s">
         <v>188</v>
       </c>
+      <c r="C43" t="s">
+        <v>188</v>
+      </c>
       <c r="D43" s="4" t="s">
         <v>188</v>
       </c>
@@ -16192,6 +17850,9 @@
       <c r="B44" t="s">
         <v>193</v>
       </c>
+      <c r="C44" t="s">
+        <v>1454</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>193</v>
       </c>
@@ -16204,6 +17865,9 @@
       <c r="B45" t="s">
         <v>197</v>
       </c>
+      <c r="C45" t="s">
+        <v>1455</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>197</v>
       </c>
@@ -16216,6 +17880,9 @@
       <c r="B46" t="s">
         <v>201</v>
       </c>
+      <c r="C46" t="s">
+        <v>201</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>201</v>
       </c>
@@ -16228,6 +17895,9 @@
       <c r="B47" t="s">
         <v>206</v>
       </c>
+      <c r="C47" t="s">
+        <v>1456</v>
+      </c>
       <c r="D47" s="4" t="s">
         <v>206</v>
       </c>
@@ -16240,6 +17910,9 @@
       <c r="B48" t="s">
         <v>209</v>
       </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
       <c r="D48" s="4" t="s">
         <v>209</v>
       </c>
@@ -16252,6 +17925,9 @@
       <c r="B49" t="s">
         <v>213</v>
       </c>
+      <c r="C49" t="s">
+        <v>1457</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>213</v>
       </c>
@@ -16264,6 +17940,9 @@
       <c r="B50" t="s">
         <v>218</v>
       </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>218</v>
       </c>
@@ -16276,6 +17955,9 @@
       <c r="B51" t="s">
         <v>222</v>
       </c>
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
       <c r="D51" s="4" t="s">
         <v>222</v>
       </c>
@@ -16288,6 +17970,9 @@
       <c r="B52" t="s">
         <v>226</v>
       </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>226</v>
       </c>
@@ -16300,6 +17985,9 @@
       <c r="B53" t="s">
         <v>231</v>
       </c>
+      <c r="C53" t="s">
+        <v>1458</v>
+      </c>
       <c r="D53" s="4" t="s">
         <v>231</v>
       </c>
@@ -16312,6 +18000,9 @@
       <c r="B54" t="s">
         <v>235</v>
       </c>
+      <c r="C54" t="s">
+        <v>1459</v>
+      </c>
       <c r="D54" s="4" t="s">
         <v>235</v>
       </c>
@@ -16324,6 +18015,9 @@
       <c r="B55" t="s">
         <v>240</v>
       </c>
+      <c r="C55" t="s">
+        <v>1460</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>240</v>
       </c>
@@ -16336,6 +18030,9 @@
       <c r="B56" t="s">
         <v>245</v>
       </c>
+      <c r="C56" t="s">
+        <v>245</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>245</v>
       </c>
@@ -16348,6 +18045,9 @@
       <c r="B57" t="s">
         <v>250</v>
       </c>
+      <c r="C57" t="s">
+        <v>1461</v>
+      </c>
       <c r="D57" s="4" t="s">
         <v>250</v>
       </c>
@@ -16360,6 +18060,9 @@
       <c r="B58" t="s">
         <v>255</v>
       </c>
+      <c r="C58" t="s">
+        <v>1462</v>
+      </c>
       <c r="D58" s="4" t="s">
         <v>255</v>
       </c>
@@ -16372,6 +18075,9 @@
       <c r="B59" t="s">
         <v>259</v>
       </c>
+      <c r="C59" t="s">
+        <v>259</v>
+      </c>
       <c r="D59" s="4" t="s">
         <v>259</v>
       </c>
@@ -16384,6 +18090,9 @@
       <c r="B60" t="s">
         <v>264</v>
       </c>
+      <c r="C60" t="s">
+        <v>1463</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>264</v>
       </c>
@@ -16396,6 +18105,9 @@
       <c r="B61" t="s">
         <v>269</v>
       </c>
+      <c r="C61" t="s">
+        <v>1464</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>269</v>
       </c>
@@ -16408,6 +18120,9 @@
       <c r="B62" t="s">
         <v>274</v>
       </c>
+      <c r="C62" t="s">
+        <v>1465</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>274</v>
       </c>
@@ -16420,6 +18135,9 @@
       <c r="B63" t="s">
         <v>279</v>
       </c>
+      <c r="C63" t="s">
+        <v>1466</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>279</v>
       </c>
@@ -16432,6 +18150,9 @@
       <c r="B64" t="s">
         <v>284</v>
       </c>
+      <c r="C64" t="s">
+        <v>1467</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>284</v>
       </c>
@@ -16444,6 +18165,9 @@
       <c r="B65" t="s">
         <v>289</v>
       </c>
+      <c r="C65" t="s">
+        <v>289</v>
+      </c>
       <c r="D65" s="4" t="s">
         <v>289</v>
       </c>
@@ -16456,6 +18180,9 @@
       <c r="B66" t="s">
         <v>293</v>
       </c>
+      <c r="C66" t="s">
+        <v>1468</v>
+      </c>
       <c r="D66" s="4" t="s">
         <v>293</v>
       </c>
@@ -16468,6 +18195,9 @@
       <c r="B67" t="s">
         <v>298</v>
       </c>
+      <c r="C67" t="s">
+        <v>1469</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>298</v>
       </c>
@@ -16480,6 +18210,9 @@
       <c r="B68" t="s">
         <v>303</v>
       </c>
+      <c r="C68" t="s">
+        <v>1470</v>
+      </c>
       <c r="D68" s="4" t="s">
         <v>303</v>
       </c>
@@ -16492,6 +18225,9 @@
       <c r="B69" t="s">
         <v>303</v>
       </c>
+      <c r="C69" t="s">
+        <v>1470</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>303</v>
       </c>
@@ -16504,6 +18240,9 @@
       <c r="B70" t="s">
         <v>310</v>
       </c>
+      <c r="C70" t="s">
+        <v>310</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>310</v>
       </c>
@@ -16516,6 +18255,9 @@
       <c r="B71" t="s">
         <v>314</v>
       </c>
+      <c r="C71" t="s">
+        <v>314</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>314</v>
       </c>
@@ -16528,6 +18270,9 @@
       <c r="B72" t="s">
         <v>318</v>
       </c>
+      <c r="C72" t="s">
+        <v>318</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>318</v>
       </c>
@@ -16540,6 +18285,9 @@
       <c r="B73" t="s">
         <v>323</v>
       </c>
+      <c r="C73" t="s">
+        <v>1471</v>
+      </c>
       <c r="D73" s="4" t="s">
         <v>323</v>
       </c>
@@ -16552,6 +18300,9 @@
       <c r="B74" t="s">
         <v>328</v>
       </c>
+      <c r="C74" t="s">
+        <v>328</v>
+      </c>
       <c r="D74" s="4" t="s">
         <v>328</v>
       </c>
@@ -16564,6 +18315,9 @@
       <c r="B75" t="s">
         <v>332</v>
       </c>
+      <c r="C75" t="s">
+        <v>332</v>
+      </c>
       <c r="D75" s="4" t="s">
         <v>332</v>
       </c>
@@ -16576,6 +18330,9 @@
       <c r="B76" t="s">
         <v>332</v>
       </c>
+      <c r="C76" t="s">
+        <v>332</v>
+      </c>
       <c r="D76" s="4" t="s">
         <v>332</v>
       </c>
@@ -16588,6 +18345,9 @@
       <c r="B77" t="s">
         <v>339</v>
       </c>
+      <c r="C77" t="s">
+        <v>339</v>
+      </c>
       <c r="D77" s="4" t="s">
         <v>339</v>
       </c>
@@ -16600,6 +18360,9 @@
       <c r="B78" t="s">
         <v>344</v>
       </c>
+      <c r="C78" t="s">
+        <v>1472</v>
+      </c>
       <c r="D78" s="4" t="s">
         <v>344</v>
       </c>
@@ -16612,6 +18375,9 @@
       <c r="B79" t="s">
         <v>339</v>
       </c>
+      <c r="C79" t="s">
+        <v>1473</v>
+      </c>
       <c r="D79" s="4" t="s">
         <v>339</v>
       </c>
@@ -16624,6 +18390,9 @@
       <c r="B80" t="s">
         <v>353</v>
       </c>
+      <c r="C80" t="s">
+        <v>353</v>
+      </c>
       <c r="D80" s="4" t="s">
         <v>353</v>
       </c>
@@ -16636,6 +18405,9 @@
       <c r="B81" t="s">
         <v>357</v>
       </c>
+      <c r="C81" t="s">
+        <v>357</v>
+      </c>
       <c r="D81" s="4" t="s">
         <v>357</v>
       </c>
@@ -16648,6 +18420,9 @@
       <c r="B82" t="s">
         <v>362</v>
       </c>
+      <c r="C82" t="s">
+        <v>1474</v>
+      </c>
       <c r="D82" s="4" t="s">
         <v>362</v>
       </c>
@@ -16660,6 +18435,9 @@
       <c r="B83" t="s">
         <v>366</v>
       </c>
+      <c r="C83" t="s">
+        <v>1475</v>
+      </c>
       <c r="D83" s="4" t="s">
         <v>366</v>
       </c>
@@ -16672,6 +18450,9 @@
       <c r="B84" t="s">
         <v>370</v>
       </c>
+      <c r="C84" t="s">
+        <v>1476</v>
+      </c>
       <c r="D84" s="4" t="s">
         <v>370</v>
       </c>
@@ -16684,6 +18465,9 @@
       <c r="B85" t="s">
         <v>374</v>
       </c>
+      <c r="C85" t="s">
+        <v>1477</v>
+      </c>
       <c r="D85" s="4" t="s">
         <v>374</v>
       </c>
@@ -16696,6 +18480,9 @@
       <c r="B86" t="s">
         <v>379</v>
       </c>
+      <c r="C86" t="s">
+        <v>379</v>
+      </c>
       <c r="D86" s="4" t="s">
         <v>379</v>
       </c>
@@ -16708,6 +18495,9 @@
       <c r="B87" t="s">
         <v>384</v>
       </c>
+      <c r="C87" t="s">
+        <v>384</v>
+      </c>
       <c r="D87" s="4" t="s">
         <v>384</v>
       </c>
@@ -16720,6 +18510,9 @@
       <c r="B88" t="s">
         <v>389</v>
       </c>
+      <c r="C88" t="s">
+        <v>389</v>
+      </c>
       <c r="D88" s="4" t="s">
         <v>389</v>
       </c>
@@ -16732,6 +18525,9 @@
       <c r="B89" t="s">
         <v>393</v>
       </c>
+      <c r="C89" t="s">
+        <v>393</v>
+      </c>
       <c r="D89" s="4" t="s">
         <v>393</v>
       </c>
@@ -16744,6 +18540,9 @@
       <c r="B90" t="s">
         <v>397</v>
       </c>
+      <c r="C90" t="s">
+        <v>1478</v>
+      </c>
       <c r="D90" s="4" t="s">
         <v>397</v>
       </c>
@@ -16756,6 +18555,9 @@
       <c r="B91" t="s">
         <v>402</v>
       </c>
+      <c r="C91" t="s">
+        <v>1479</v>
+      </c>
       <c r="D91" s="4" t="s">
         <v>402</v>
       </c>
@@ -16768,6 +18570,9 @@
       <c r="B92" t="s">
         <v>407</v>
       </c>
+      <c r="C92" t="s">
+        <v>407</v>
+      </c>
       <c r="D92" s="4" t="s">
         <v>407</v>
       </c>
@@ -16780,6 +18585,9 @@
       <c r="B93" t="s">
         <v>408</v>
       </c>
+      <c r="C93" t="s">
+        <v>408</v>
+      </c>
       <c r="D93" s="4" t="s">
         <v>408</v>
       </c>
@@ -16792,6 +18600,9 @@
       <c r="B94" t="s">
         <v>412</v>
       </c>
+      <c r="C94" t="s">
+        <v>412</v>
+      </c>
       <c r="D94" s="4" t="s">
         <v>412</v>
       </c>
@@ -16804,6 +18615,9 @@
       <c r="B95" t="s">
         <v>416</v>
       </c>
+      <c r="C95" t="s">
+        <v>416</v>
+      </c>
       <c r="D95" s="4" t="s">
         <v>416</v>
       </c>
@@ -16816,6 +18630,9 @@
       <c r="B96" t="s">
         <v>420</v>
       </c>
+      <c r="C96" t="s">
+        <v>420</v>
+      </c>
       <c r="D96" s="4" t="s">
         <v>420</v>
       </c>
@@ -16828,6 +18645,9 @@
       <c r="B97" t="s">
         <v>424</v>
       </c>
+      <c r="C97" t="s">
+        <v>424</v>
+      </c>
       <c r="D97" s="4" t="s">
         <v>424</v>
       </c>
@@ -16840,6 +18660,9 @@
       <c r="B98" t="s">
         <v>427</v>
       </c>
+      <c r="C98" t="s">
+        <v>427</v>
+      </c>
       <c r="D98" s="4" t="s">
         <v>427</v>
       </c>
@@ -16852,6 +18675,9 @@
       <c r="B99" t="s">
         <v>432</v>
       </c>
+      <c r="C99" t="s">
+        <v>1480</v>
+      </c>
       <c r="D99" s="4" t="s">
         <v>432</v>
       </c>
@@ -16864,6 +18690,9 @@
       <c r="B100" t="s">
         <v>436</v>
       </c>
+      <c r="C100" t="s">
+        <v>1481</v>
+      </c>
       <c r="D100" s="4" t="s">
         <v>436</v>
       </c>
@@ -16876,6 +18705,9 @@
       <c r="B101" t="s">
         <v>440</v>
       </c>
+      <c r="C101" t="s">
+        <v>1482</v>
+      </c>
       <c r="D101" s="4" t="s">
         <v>440</v>
       </c>
@@ -16888,6 +18720,9 @@
       <c r="B102" t="s">
         <v>445</v>
       </c>
+      <c r="C102" t="s">
+        <v>445</v>
+      </c>
       <c r="D102" s="4" t="s">
         <v>445</v>
       </c>
@@ -16900,6 +18735,9 @@
       <c r="B103" t="s">
         <v>449</v>
       </c>
+      <c r="C103" t="s">
+        <v>449</v>
+      </c>
       <c r="D103" s="4" t="s">
         <v>449</v>
       </c>
@@ -16912,6 +18750,9 @@
       <c r="B104" t="s">
         <v>454</v>
       </c>
+      <c r="C104" t="s">
+        <v>1483</v>
+      </c>
       <c r="D104" s="4" t="s">
         <v>454</v>
       </c>
@@ -16924,6 +18765,9 @@
       <c r="B105" t="s">
         <v>459</v>
       </c>
+      <c r="C105" t="s">
+        <v>459</v>
+      </c>
       <c r="D105" s="4" t="s">
         <v>459</v>
       </c>
@@ -16936,6 +18780,9 @@
       <c r="B106" t="s">
         <v>459</v>
       </c>
+      <c r="C106" t="s">
+        <v>459</v>
+      </c>
       <c r="D106" s="4" t="s">
         <v>459</v>
       </c>
@@ -16948,6 +18795,9 @@
       <c r="B107" t="s">
         <v>465</v>
       </c>
+      <c r="C107" t="s">
+        <v>465</v>
+      </c>
       <c r="D107" s="4" t="s">
         <v>465</v>
       </c>
@@ -16960,6 +18810,9 @@
       <c r="B108" t="s">
         <v>470</v>
       </c>
+      <c r="C108" t="s">
+        <v>470</v>
+      </c>
       <c r="D108" s="4" t="s">
         <v>470</v>
       </c>
@@ -16972,6 +18825,9 @@
       <c r="B109" t="s">
         <v>474</v>
       </c>
+      <c r="C109" t="s">
+        <v>474</v>
+      </c>
       <c r="D109" s="4" t="s">
         <v>474</v>
       </c>
@@ -16984,6 +18840,9 @@
       <c r="B110" t="s">
         <v>479</v>
       </c>
+      <c r="C110" t="s">
+        <v>1484</v>
+      </c>
       <c r="D110" s="4" t="s">
         <v>479</v>
       </c>
@@ -16996,6 +18855,9 @@
       <c r="B111" t="s">
         <v>483</v>
       </c>
+      <c r="C111" t="s">
+        <v>483</v>
+      </c>
       <c r="D111" s="4" t="s">
         <v>483</v>
       </c>
@@ -17008,6 +18870,9 @@
       <c r="B112" t="s">
         <v>488</v>
       </c>
+      <c r="C112" t="s">
+        <v>488</v>
+      </c>
       <c r="D112" s="4" t="s">
         <v>488</v>
       </c>
@@ -17020,6 +18885,9 @@
       <c r="B113" t="s">
         <v>492</v>
       </c>
+      <c r="C113" t="s">
+        <v>1485</v>
+      </c>
       <c r="D113" s="4" t="s">
         <v>492</v>
       </c>
@@ -17032,6 +18900,9 @@
       <c r="B114" t="s">
         <v>496</v>
       </c>
+      <c r="C114" t="s">
+        <v>1486</v>
+      </c>
       <c r="D114" s="4" t="s">
         <v>496</v>
       </c>
@@ -17044,6 +18915,9 @@
       <c r="B115" t="s">
         <v>501</v>
       </c>
+      <c r="C115" t="s">
+        <v>501</v>
+      </c>
       <c r="D115" s="4" t="s">
         <v>501</v>
       </c>
@@ -17056,6 +18930,9 @@
       <c r="B116" t="s">
         <v>506</v>
       </c>
+      <c r="C116" t="s">
+        <v>1487</v>
+      </c>
       <c r="D116" s="4" t="s">
         <v>506</v>
       </c>
@@ -17068,6 +18945,9 @@
       <c r="B117" t="s">
         <v>511</v>
       </c>
+      <c r="C117" t="s">
+        <v>511</v>
+      </c>
       <c r="D117" s="4" t="s">
         <v>511</v>
       </c>
@@ -17080,6 +18960,9 @@
       <c r="B118" t="s">
         <v>516</v>
       </c>
+      <c r="C118" t="s">
+        <v>516</v>
+      </c>
       <c r="D118" s="4" t="s">
         <v>516</v>
       </c>
@@ -17092,6 +18975,9 @@
       <c r="B119" t="s">
         <v>522</v>
       </c>
+      <c r="C119" t="s">
+        <v>522</v>
+      </c>
       <c r="D119" s="4" t="s">
         <v>522</v>
       </c>
@@ -17104,6 +18990,9 @@
       <c r="B120" t="s">
         <v>527</v>
       </c>
+      <c r="C120" t="s">
+        <v>527</v>
+      </c>
       <c r="D120" s="4" t="s">
         <v>527</v>
       </c>
@@ -17116,6 +19005,9 @@
       <c r="B121" t="s">
         <v>532</v>
       </c>
+      <c r="C121" t="s">
+        <v>1488</v>
+      </c>
       <c r="D121" s="4" t="s">
         <v>532</v>
       </c>
@@ -17128,6 +19020,9 @@
       <c r="B122" t="s">
         <v>534</v>
       </c>
+      <c r="C122" t="s">
+        <v>534</v>
+      </c>
       <c r="D122" s="4" t="s">
         <v>534</v>
       </c>
@@ -17140,6 +19035,9 @@
       <c r="B123" t="s">
         <v>538</v>
       </c>
+      <c r="C123" t="s">
+        <v>538</v>
+      </c>
       <c r="D123" s="4" t="s">
         <v>538</v>
       </c>
@@ -17152,6 +19050,9 @@
       <c r="B124" t="s">
         <v>542</v>
       </c>
+      <c r="C124" t="s">
+        <v>542</v>
+      </c>
       <c r="D124" s="4" t="s">
         <v>542</v>
       </c>
@@ -17164,6 +19065,9 @@
       <c r="B125" t="s">
         <v>546</v>
       </c>
+      <c r="C125" t="s">
+        <v>1489</v>
+      </c>
       <c r="D125" s="4" t="s">
         <v>546</v>
       </c>
@@ -17176,6 +19080,9 @@
       <c r="B126" t="s">
         <v>551</v>
       </c>
+      <c r="C126" t="s">
+        <v>1490</v>
+      </c>
       <c r="D126" s="4" t="s">
         <v>551</v>
       </c>
@@ -17188,6 +19095,9 @@
       <c r="B127" t="s">
         <v>556</v>
       </c>
+      <c r="C127" t="s">
+        <v>1491</v>
+      </c>
       <c r="D127" s="4" t="s">
         <v>556</v>
       </c>
@@ -17200,6 +19110,9 @@
       <c r="B128" t="s">
         <v>560</v>
       </c>
+      <c r="C128" t="s">
+        <v>1492</v>
+      </c>
       <c r="D128" s="4" t="s">
         <v>560</v>
       </c>
@@ -17212,6 +19125,9 @@
       <c r="B129" t="s">
         <v>564</v>
       </c>
+      <c r="C129" t="s">
+        <v>1493</v>
+      </c>
       <c r="D129" s="4" t="s">
         <v>564</v>
       </c>
@@ -17224,6 +19140,9 @@
       <c r="B130" t="s">
         <v>569</v>
       </c>
+      <c r="C130" t="s">
+        <v>569</v>
+      </c>
       <c r="D130" s="4" t="s">
         <v>569</v>
       </c>
@@ -17236,6 +19155,9 @@
       <c r="B131" t="s">
         <v>574</v>
       </c>
+      <c r="C131" t="s">
+        <v>574</v>
+      </c>
       <c r="D131" s="4" t="s">
         <v>574</v>
       </c>
@@ -17248,6 +19170,9 @@
       <c r="B132" t="s">
         <v>579</v>
       </c>
+      <c r="C132" t="s">
+        <v>1494</v>
+      </c>
       <c r="D132" s="4" t="s">
         <v>579</v>
       </c>
@@ -17260,6 +19185,9 @@
       <c r="B133" t="s">
         <v>583</v>
       </c>
+      <c r="C133" t="s">
+        <v>583</v>
+      </c>
       <c r="D133" s="4" t="s">
         <v>583</v>
       </c>
@@ -17272,6 +19200,9 @@
       <c r="B134" t="s">
         <v>587</v>
       </c>
+      <c r="C134" t="s">
+        <v>1495</v>
+      </c>
       <c r="D134" s="4" t="s">
         <v>587</v>
       </c>
@@ -17284,6 +19215,9 @@
       <c r="B135" t="s">
         <v>592</v>
       </c>
+      <c r="C135" t="s">
+        <v>1496</v>
+      </c>
       <c r="D135" s="4" t="s">
         <v>592</v>
       </c>
@@ -17296,6 +19230,9 @@
       <c r="B136" t="s">
         <v>597</v>
       </c>
+      <c r="C136" t="s">
+        <v>1497</v>
+      </c>
       <c r="D136" s="4" t="s">
         <v>597</v>
       </c>
@@ -17308,6 +19245,9 @@
       <c r="B137" t="s">
         <v>601</v>
       </c>
+      <c r="C137" t="s">
+        <v>601</v>
+      </c>
       <c r="D137" s="4" t="s">
         <v>601</v>
       </c>
@@ -17320,6 +19260,9 @@
       <c r="B138" t="s">
         <v>606</v>
       </c>
+      <c r="C138" t="s">
+        <v>606</v>
+      </c>
       <c r="D138" s="4" t="s">
         <v>606</v>
       </c>
@@ -17332,6 +19275,9 @@
       <c r="B139" t="s">
         <v>611</v>
       </c>
+      <c r="C139" t="s">
+        <v>1498</v>
+      </c>
       <c r="D139" s="4" t="s">
         <v>611</v>
       </c>
@@ -17344,6 +19290,9 @@
       <c r="B140" t="s">
         <v>615</v>
       </c>
+      <c r="C140" t="s">
+        <v>1499</v>
+      </c>
       <c r="D140" s="4" t="s">
         <v>615</v>
       </c>
@@ -17356,6 +19305,9 @@
       <c r="B141" t="s">
         <v>620</v>
       </c>
+      <c r="C141" t="s">
+        <v>1500</v>
+      </c>
       <c r="D141" s="4" t="s">
         <v>620</v>
       </c>
@@ -17368,6 +19320,9 @@
       <c r="B142" t="s">
         <v>623</v>
       </c>
+      <c r="C142" t="s">
+        <v>1501</v>
+      </c>
       <c r="D142" s="4" t="s">
         <v>623</v>
       </c>
@@ -17380,6 +19335,9 @@
       <c r="B143" t="s">
         <v>628</v>
       </c>
+      <c r="C143" t="s">
+        <v>628</v>
+      </c>
       <c r="D143" s="4" t="s">
         <v>628</v>
       </c>
@@ -17392,6 +19350,9 @@
       <c r="B144" t="s">
         <v>633</v>
       </c>
+      <c r="C144" t="s">
+        <v>1502</v>
+      </c>
       <c r="D144" s="4" t="s">
         <v>633</v>
       </c>
@@ -17404,6 +19365,9 @@
       <c r="B145" t="s">
         <v>636</v>
       </c>
+      <c r="C145" t="s">
+        <v>636</v>
+      </c>
       <c r="D145" s="4" t="s">
         <v>636</v>
       </c>
@@ -17416,6 +19380,9 @@
       <c r="B146" t="s">
         <v>640</v>
       </c>
+      <c r="C146" t="s">
+        <v>1503</v>
+      </c>
       <c r="D146" s="4" t="s">
         <v>640</v>
       </c>
@@ -17428,6 +19395,9 @@
       <c r="B147" t="s">
         <v>644</v>
       </c>
+      <c r="C147" t="s">
+        <v>1504</v>
+      </c>
       <c r="D147" s="4" t="s">
         <v>644</v>
       </c>
@@ -17440,6 +19410,9 @@
       <c r="B148" t="s">
         <v>649</v>
       </c>
+      <c r="C148" t="s">
+        <v>649</v>
+      </c>
       <c r="D148" s="4" t="s">
         <v>649</v>
       </c>
@@ -17452,6 +19425,9 @@
       <c r="B149" t="s">
         <v>653</v>
       </c>
+      <c r="C149" t="s">
+        <v>653</v>
+      </c>
       <c r="D149" s="4" t="s">
         <v>653</v>
       </c>
@@ -17464,6 +19440,9 @@
       <c r="B150" t="s">
         <v>655</v>
       </c>
+      <c r="C150" t="s">
+        <v>1384</v>
+      </c>
       <c r="D150" s="4" t="s">
         <v>655</v>
       </c>
@@ -17476,6 +19455,9 @@
       <c r="B151" t="s">
         <v>661</v>
       </c>
+      <c r="C151" t="s">
+        <v>661</v>
+      </c>
       <c r="D151" s="4" t="s">
         <v>661</v>
       </c>
@@ -17488,6 +19470,9 @@
       <c r="B152" t="s">
         <v>665</v>
       </c>
+      <c r="C152" t="s">
+        <v>665</v>
+      </c>
       <c r="D152" s="4" t="s">
         <v>665</v>
       </c>
@@ -17500,6 +19485,9 @@
       <c r="B153" t="s">
         <v>670</v>
       </c>
+      <c r="C153" t="s">
+        <v>1385</v>
+      </c>
       <c r="D153" s="4" t="s">
         <v>670</v>
       </c>
@@ -17512,6 +19500,9 @@
       <c r="B154" t="s">
         <v>674</v>
       </c>
+      <c r="C154" t="s">
+        <v>1386</v>
+      </c>
       <c r="D154" s="4" t="s">
         <v>674</v>
       </c>
@@ -17524,6 +19515,9 @@
       <c r="B155" t="s">
         <v>679</v>
       </c>
+      <c r="C155" t="s">
+        <v>1387</v>
+      </c>
       <c r="D155" s="4" t="s">
         <v>679</v>
       </c>
@@ -17536,6 +19530,9 @@
       <c r="B156" t="s">
         <v>684</v>
       </c>
+      <c r="C156" t="s">
+        <v>1388</v>
+      </c>
       <c r="D156" s="4" t="s">
         <v>684</v>
       </c>
@@ -17548,6 +19545,9 @@
       <c r="B157" t="s">
         <v>687</v>
       </c>
+      <c r="C157" t="s">
+        <v>687</v>
+      </c>
       <c r="D157" s="4" t="s">
         <v>687</v>
       </c>
@@ -17560,6 +19560,9 @@
       <c r="B158" t="s">
         <v>691</v>
       </c>
+      <c r="C158" t="s">
+        <v>1389</v>
+      </c>
       <c r="D158" s="4" t="s">
         <v>691</v>
       </c>
@@ -17572,6 +19575,9 @@
       <c r="B159" t="s">
         <v>696</v>
       </c>
+      <c r="C159" t="s">
+        <v>1390</v>
+      </c>
       <c r="D159" s="4" t="s">
         <v>696</v>
       </c>
@@ -17584,6 +19590,9 @@
       <c r="B160" t="s">
         <v>701</v>
       </c>
+      <c r="C160" t="s">
+        <v>1391</v>
+      </c>
       <c r="D160" s="4" t="s">
         <v>701</v>
       </c>
@@ -17596,6 +19605,9 @@
       <c r="B161" t="s">
         <v>706</v>
       </c>
+      <c r="C161" t="s">
+        <v>706</v>
+      </c>
       <c r="D161" s="4" t="s">
         <v>706</v>
       </c>
@@ -17608,6 +19620,9 @@
       <c r="B162" t="s">
         <v>711</v>
       </c>
+      <c r="C162" t="s">
+        <v>711</v>
+      </c>
       <c r="D162" s="4" t="s">
         <v>711</v>
       </c>
@@ -17620,6 +19635,9 @@
       <c r="B163" t="s">
         <v>716</v>
       </c>
+      <c r="C163" t="s">
+        <v>636</v>
+      </c>
       <c r="D163" s="4" t="s">
         <v>716</v>
       </c>
@@ -17632,6 +19650,9 @@
       <c r="B164" t="s">
         <v>721</v>
       </c>
+      <c r="C164" t="s">
+        <v>721</v>
+      </c>
       <c r="D164" s="4" t="s">
         <v>721</v>
       </c>
@@ -17644,6 +19665,9 @@
       <c r="B165" t="s">
         <v>725</v>
       </c>
+      <c r="C165" t="s">
+        <v>725</v>
+      </c>
       <c r="D165" s="4" t="s">
         <v>725</v>
       </c>
@@ -17656,6 +19680,9 @@
       <c r="B166" t="s">
         <v>730</v>
       </c>
+      <c r="C166" t="s">
+        <v>1392</v>
+      </c>
       <c r="D166" s="4" t="s">
         <v>730</v>
       </c>
@@ -17668,6 +19695,9 @@
       <c r="B167" t="s">
         <v>732</v>
       </c>
+      <c r="C167" t="s">
+        <v>732</v>
+      </c>
       <c r="D167" s="4" t="s">
         <v>732</v>
       </c>
@@ -17680,6 +19710,9 @@
       <c r="B168" t="s">
         <v>737</v>
       </c>
+      <c r="C168" t="s">
+        <v>737</v>
+      </c>
       <c r="D168" s="4" t="s">
         <v>737</v>
       </c>
@@ -17692,6 +19725,9 @@
       <c r="B169" t="s">
         <v>742</v>
       </c>
+      <c r="C169" t="s">
+        <v>742</v>
+      </c>
       <c r="D169" s="4" t="s">
         <v>742</v>
       </c>
@@ -17704,6 +19740,9 @@
       <c r="B170" t="s">
         <v>747</v>
       </c>
+      <c r="C170" t="s">
+        <v>1393</v>
+      </c>
       <c r="D170" s="4" t="s">
         <v>747</v>
       </c>
@@ -17716,6 +19755,9 @@
       <c r="B171" t="s">
         <v>752</v>
       </c>
+      <c r="C171" t="s">
+        <v>1394</v>
+      </c>
       <c r="D171" s="4" t="s">
         <v>752</v>
       </c>
@@ -17728,6 +19770,9 @@
       <c r="B172" t="s">
         <v>755</v>
       </c>
+      <c r="C172" t="s">
+        <v>755</v>
+      </c>
       <c r="D172" s="4" t="s">
         <v>755</v>
       </c>
@@ -17740,6 +19785,9 @@
       <c r="B173" t="s">
         <v>760</v>
       </c>
+      <c r="C173" t="s">
+        <v>1395</v>
+      </c>
       <c r="D173" s="4" t="s">
         <v>760</v>
       </c>
@@ -17752,6 +19800,9 @@
       <c r="B174" t="s">
         <v>763</v>
       </c>
+      <c r="C174" t="s">
+        <v>763</v>
+      </c>
       <c r="D174" s="4" t="s">
         <v>763</v>
       </c>
@@ -17764,6 +19815,9 @@
       <c r="B175" t="s">
         <v>768</v>
       </c>
+      <c r="C175" t="s">
+        <v>1396</v>
+      </c>
       <c r="D175" s="4" t="s">
         <v>768</v>
       </c>
@@ -17776,6 +19830,9 @@
       <c r="B176" t="s">
         <v>339</v>
       </c>
+      <c r="C176" t="s">
+        <v>339</v>
+      </c>
       <c r="D176" s="4" t="s">
         <v>339</v>
       </c>
@@ -17788,6 +19845,9 @@
       <c r="B177" t="s">
         <v>774</v>
       </c>
+      <c r="C177" t="s">
+        <v>1397</v>
+      </c>
       <c r="D177" s="4" t="s">
         <v>774</v>
       </c>
@@ -17800,6 +19860,9 @@
       <c r="B178" t="s">
         <v>778</v>
       </c>
+      <c r="C178" t="s">
+        <v>778</v>
+      </c>
       <c r="D178" s="4" t="s">
         <v>778</v>
       </c>
@@ -17812,6 +19875,9 @@
       <c r="B179" t="s">
         <v>782</v>
       </c>
+      <c r="C179" t="s">
+        <v>782</v>
+      </c>
       <c r="D179" s="4" t="s">
         <v>782</v>
       </c>
@@ -17824,6 +19890,9 @@
       <c r="B180" t="s">
         <v>787</v>
       </c>
+      <c r="C180" t="s">
+        <v>1398</v>
+      </c>
       <c r="D180" s="4" t="s">
         <v>787</v>
       </c>
@@ -17836,6 +19905,9 @@
       <c r="B181" t="s">
         <v>792</v>
       </c>
+      <c r="C181" t="s">
+        <v>1399</v>
+      </c>
       <c r="D181" s="4" t="s">
         <v>792</v>
       </c>
@@ -17848,6 +19920,9 @@
       <c r="B182" t="s">
         <v>792</v>
       </c>
+      <c r="C182" t="s">
+        <v>1400</v>
+      </c>
       <c r="D182" s="4" t="s">
         <v>792</v>
       </c>
@@ -17860,6 +19935,9 @@
       <c r="B183" t="s">
         <v>800</v>
       </c>
+      <c r="C183" t="s">
+        <v>1401</v>
+      </c>
       <c r="D183" s="4" t="s">
         <v>800</v>
       </c>
@@ -17872,6 +19950,9 @@
       <c r="B184" t="s">
         <v>804</v>
       </c>
+      <c r="C184" t="s">
+        <v>1402</v>
+      </c>
       <c r="D184" s="4" t="s">
         <v>804</v>
       </c>
@@ -17884,6 +19965,9 @@
       <c r="B185" t="s">
         <v>809</v>
       </c>
+      <c r="C185" t="s">
+        <v>809</v>
+      </c>
       <c r="D185" s="4" t="s">
         <v>809</v>
       </c>
@@ -17896,6 +19980,9 @@
       <c r="B186" t="s">
         <v>814</v>
       </c>
+      <c r="C186" t="s">
+        <v>1403</v>
+      </c>
       <c r="D186" s="4" t="s">
         <v>814</v>
       </c>
@@ -17908,6 +19995,9 @@
       <c r="B187" t="s">
         <v>818</v>
       </c>
+      <c r="C187" t="s">
+        <v>818</v>
+      </c>
       <c r="D187" s="4" t="s">
         <v>818</v>
       </c>
@@ -17920,6 +20010,9 @@
       <c r="B188" t="s">
         <v>821</v>
       </c>
+      <c r="C188" t="s">
+        <v>821</v>
+      </c>
       <c r="D188" s="4" t="s">
         <v>821</v>
       </c>
@@ -17932,6 +20025,9 @@
       <c r="B189" t="s">
         <v>825</v>
       </c>
+      <c r="C189" t="s">
+        <v>825</v>
+      </c>
       <c r="D189" s="4" t="s">
         <v>825</v>
       </c>
@@ -17944,6 +20040,9 @@
       <c r="B190" t="s">
         <v>829</v>
       </c>
+      <c r="C190" t="s">
+        <v>829</v>
+      </c>
       <c r="D190" s="4" t="s">
         <v>829</v>
       </c>
@@ -17956,6 +20055,9 @@
       <c r="B191" t="s">
         <v>833</v>
       </c>
+      <c r="C191" t="s">
+        <v>1404</v>
+      </c>
       <c r="D191" s="4" t="s">
         <v>833</v>
       </c>
@@ -17968,6 +20070,9 @@
       <c r="B192" t="s">
         <v>838</v>
       </c>
+      <c r="C192" t="s">
+        <v>838</v>
+      </c>
       <c r="D192" s="4" t="s">
         <v>838</v>
       </c>
@@ -17980,6 +20085,9 @@
       <c r="B193" t="s">
         <v>842</v>
       </c>
+      <c r="C193" t="s">
+        <v>842</v>
+      </c>
       <c r="D193" s="4" t="s">
         <v>842</v>
       </c>
@@ -17992,6 +20100,9 @@
       <c r="B194" t="s">
         <v>847</v>
       </c>
+      <c r="C194" t="s">
+        <v>1405</v>
+      </c>
       <c r="D194" s="4" t="s">
         <v>847</v>
       </c>
@@ -18004,6 +20115,9 @@
       <c r="B195" t="s">
         <v>852</v>
       </c>
+      <c r="C195" t="s">
+        <v>1406</v>
+      </c>
       <c r="D195" s="4" t="s">
         <v>852</v>
       </c>
@@ -18016,6 +20130,9 @@
       <c r="B196" t="s">
         <v>856</v>
       </c>
+      <c r="C196" t="s">
+        <v>1407</v>
+      </c>
       <c r="D196" s="4" t="s">
         <v>856</v>
       </c>
@@ -18028,6 +20145,9 @@
       <c r="B197" t="s">
         <v>860</v>
       </c>
+      <c r="C197" t="s">
+        <v>860</v>
+      </c>
       <c r="D197" s="4" t="s">
         <v>860</v>
       </c>
@@ -18040,6 +20160,9 @@
       <c r="B198" t="s">
         <v>864</v>
       </c>
+      <c r="C198" t="s">
+        <v>864</v>
+      </c>
       <c r="D198" s="4" t="s">
         <v>864</v>
       </c>
@@ -18052,6 +20175,9 @@
       <c r="B199" t="s">
         <v>868</v>
       </c>
+      <c r="C199" t="s">
+        <v>868</v>
+      </c>
       <c r="D199" s="4" t="s">
         <v>868</v>
       </c>
@@ -18064,6 +20190,9 @@
       <c r="B200" t="s">
         <v>873</v>
       </c>
+      <c r="C200" t="s">
+        <v>1408</v>
+      </c>
       <c r="D200" s="4" t="s">
         <v>873</v>
       </c>
@@ -18076,6 +20205,9 @@
       <c r="B201" t="s">
         <v>878</v>
       </c>
+      <c r="C201" t="s">
+        <v>878</v>
+      </c>
       <c r="D201" s="4" t="s">
         <v>878</v>
       </c>
@@ -18088,6 +20220,9 @@
       <c r="B202" t="s">
         <v>883</v>
       </c>
+      <c r="C202" t="s">
+        <v>1409</v>
+      </c>
       <c r="D202" s="4" t="s">
         <v>883</v>
       </c>
@@ -18100,6 +20235,9 @@
       <c r="B203" t="s">
         <v>888</v>
       </c>
+      <c r="C203" t="s">
+        <v>1410</v>
+      </c>
       <c r="D203" s="4" t="s">
         <v>888</v>
       </c>
@@ -18112,6 +20250,9 @@
       <c r="B204" t="s">
         <v>894</v>
       </c>
+      <c r="C204" t="s">
+        <v>1411</v>
+      </c>
       <c r="D204" s="4" t="s">
         <v>894</v>
       </c>
@@ -18124,6 +20265,9 @@
       <c r="B205" t="s">
         <v>900</v>
       </c>
+      <c r="C205" t="s">
+        <v>900</v>
+      </c>
       <c r="D205" s="4" t="s">
         <v>900</v>
       </c>
@@ -18136,6 +20280,9 @@
       <c r="B206" t="s">
         <v>904</v>
       </c>
+      <c r="C206" t="s">
+        <v>904</v>
+      </c>
       <c r="D206" s="4" t="s">
         <v>904</v>
       </c>
@@ -18148,6 +20295,9 @@
       <c r="B207" t="s">
         <v>909</v>
       </c>
+      <c r="C207" t="s">
+        <v>1412</v>
+      </c>
       <c r="D207" s="4" t="s">
         <v>909</v>
       </c>
@@ -18160,6 +20310,9 @@
       <c r="B208" t="s">
         <v>915</v>
       </c>
+      <c r="C208" t="s">
+        <v>1413</v>
+      </c>
       <c r="D208" s="4" t="s">
         <v>915</v>
       </c>
@@ -18172,6 +20325,9 @@
       <c r="B209" t="s">
         <v>920</v>
       </c>
+      <c r="C209" t="s">
+        <v>1414</v>
+      </c>
       <c r="D209" s="4" t="s">
         <v>920</v>
       </c>
@@ -18184,6 +20340,9 @@
       <c r="B210" t="s">
         <v>925</v>
       </c>
+      <c r="C210" t="s">
+        <v>925</v>
+      </c>
       <c r="D210" s="4" t="s">
         <v>925</v>
       </c>
@@ -18196,6 +20355,9 @@
       <c r="B211" t="s">
         <v>930</v>
       </c>
+      <c r="C211" t="s">
+        <v>930</v>
+      </c>
       <c r="D211" s="4" t="s">
         <v>930</v>
       </c>
@@ -18208,6 +20370,9 @@
       <c r="B212" t="s">
         <v>935</v>
       </c>
+      <c r="C212" t="s">
+        <v>935</v>
+      </c>
       <c r="D212" s="4" t="s">
         <v>935</v>
       </c>
@@ -18220,6 +20385,9 @@
       <c r="B213" t="s">
         <v>938</v>
       </c>
+      <c r="C213" t="s">
+        <v>1415</v>
+      </c>
       <c r="D213" s="4" t="s">
         <v>938</v>
       </c>
@@ -18232,6 +20400,9 @@
       <c r="B214" t="s">
         <v>943</v>
       </c>
+      <c r="C214" t="s">
+        <v>943</v>
+      </c>
       <c r="D214" s="4" t="s">
         <v>943</v>
       </c>
@@ -18244,6 +20415,9 @@
       <c r="B215" t="s">
         <v>947</v>
       </c>
+      <c r="C215" t="s">
+        <v>947</v>
+      </c>
       <c r="D215" s="4" t="s">
         <v>947</v>
       </c>
@@ -18256,6 +20430,9 @@
       <c r="B216" t="s">
         <v>951</v>
       </c>
+      <c r="C216" t="s">
+        <v>951</v>
+      </c>
       <c r="D216" s="4" t="s">
         <v>951</v>
       </c>
@@ -18268,6 +20445,9 @@
       <c r="B217" t="s">
         <v>955</v>
       </c>
+      <c r="C217" t="s">
+        <v>1416</v>
+      </c>
       <c r="D217" s="4" t="s">
         <v>955</v>
       </c>
@@ -18280,6 +20460,9 @@
       <c r="B218" t="s">
         <v>956</v>
       </c>
+      <c r="C218" t="s">
+        <v>956</v>
+      </c>
       <c r="D218" s="4" t="s">
         <v>956</v>
       </c>
@@ -18292,6 +20475,9 @@
       <c r="B219" t="s">
         <v>961</v>
       </c>
+      <c r="C219" t="s">
+        <v>961</v>
+      </c>
       <c r="D219" s="4" t="s">
         <v>961</v>
       </c>
@@ -18304,6 +20490,9 @@
       <c r="B220" t="s">
         <v>966</v>
       </c>
+      <c r="C220" t="s">
+        <v>1417</v>
+      </c>
       <c r="D220" s="4" t="s">
         <v>966</v>
       </c>
@@ -18316,6 +20505,9 @@
       <c r="B221" t="s">
         <v>971</v>
       </c>
+      <c r="C221" t="s">
+        <v>1418</v>
+      </c>
       <c r="D221" s="4" t="s">
         <v>971</v>
       </c>
@@ -18328,6 +20520,9 @@
       <c r="B222" t="s">
         <v>976</v>
       </c>
+      <c r="C222" t="s">
+        <v>976</v>
+      </c>
       <c r="D222" s="4" t="s">
         <v>976</v>
       </c>
@@ -18340,6 +20535,9 @@
       <c r="B223" t="s">
         <v>980</v>
       </c>
+      <c r="C223" t="s">
+        <v>980</v>
+      </c>
       <c r="D223" s="4" t="s">
         <v>980</v>
       </c>
@@ -18352,6 +20550,9 @@
       <c r="B224" t="s">
         <v>984</v>
       </c>
+      <c r="C224" t="s">
+        <v>984</v>
+      </c>
       <c r="D224" s="4" t="s">
         <v>984</v>
       </c>
@@ -18364,6 +20565,9 @@
       <c r="B225" t="s">
         <v>989</v>
       </c>
+      <c r="C225" t="s">
+        <v>989</v>
+      </c>
       <c r="D225" s="4" t="s">
         <v>989</v>
       </c>
@@ -18376,6 +20580,9 @@
       <c r="B226" t="s">
         <v>994</v>
       </c>
+      <c r="C226" t="s">
+        <v>994</v>
+      </c>
       <c r="D226" s="4" t="s">
         <v>994</v>
       </c>
@@ -18388,6 +20595,9 @@
       <c r="B227" t="s">
         <v>999</v>
       </c>
+      <c r="C227" t="s">
+        <v>999</v>
+      </c>
       <c r="D227" s="4" t="s">
         <v>999</v>
       </c>
@@ -18400,6 +20610,9 @@
       <c r="B228" t="s">
         <v>1004</v>
       </c>
+      <c r="C228" t="s">
+        <v>1004</v>
+      </c>
       <c r="D228" s="4" t="s">
         <v>1004</v>
       </c>
@@ -18412,6 +20625,9 @@
       <c r="B229" t="s">
         <v>1009</v>
       </c>
+      <c r="C229" t="s">
+        <v>1009</v>
+      </c>
       <c r="D229" s="4" t="s">
         <v>1009</v>
       </c>
@@ -18424,6 +20640,9 @@
       <c r="B230" t="s">
         <v>1013</v>
       </c>
+      <c r="C230" t="s">
+        <v>1013</v>
+      </c>
       <c r="D230" s="4" t="s">
         <v>1013</v>
       </c>
@@ -18436,6 +20655,9 @@
       <c r="B231" t="s">
         <v>1017</v>
       </c>
+      <c r="C231" t="s">
+        <v>1419</v>
+      </c>
       <c r="D231" s="4" t="s">
         <v>1017</v>
       </c>
@@ -18448,6 +20670,9 @@
       <c r="B232" t="s">
         <v>915</v>
       </c>
+      <c r="C232" t="s">
+        <v>915</v>
+      </c>
       <c r="D232" s="4" t="s">
         <v>915</v>
       </c>
@@ -18460,6 +20685,9 @@
       <c r="B233" t="s">
         <v>1022</v>
       </c>
+      <c r="C233" t="s">
+        <v>1420</v>
+      </c>
       <c r="D233" s="4" t="s">
         <v>1022</v>
       </c>
@@ -18472,6 +20700,9 @@
       <c r="B234" t="s">
         <v>930</v>
       </c>
+      <c r="C234" t="s">
+        <v>930</v>
+      </c>
       <c r="D234" s="4" t="s">
         <v>930</v>
       </c>
@@ -18484,6 +20715,9 @@
       <c r="B235" t="s">
         <v>1030</v>
       </c>
+      <c r="C235" t="s">
+        <v>1030</v>
+      </c>
       <c r="D235" s="4" t="s">
         <v>1030</v>
       </c>
@@ -18496,6 +20730,9 @@
       <c r="B236" t="s">
         <v>1034</v>
       </c>
+      <c r="C236" t="s">
+        <v>1034</v>
+      </c>
       <c r="D236" s="4" t="s">
         <v>1034</v>
       </c>
@@ -18508,6 +20745,9 @@
       <c r="B237" t="s">
         <v>1039</v>
       </c>
+      <c r="C237" t="s">
+        <v>1421</v>
+      </c>
       <c r="D237" s="4" t="s">
         <v>1039</v>
       </c>
@@ -18520,6 +20760,9 @@
       <c r="B238" t="s">
         <v>1043</v>
       </c>
+      <c r="C238" t="s">
+        <v>1422</v>
+      </c>
       <c r="D238" s="4" t="s">
         <v>1043</v>
       </c>
@@ -18532,6 +20775,9 @@
       <c r="B239" t="s">
         <v>128</v>
       </c>
+      <c r="C239" t="s">
+        <v>1423</v>
+      </c>
       <c r="D239" s="4" t="s">
         <v>128</v>
       </c>
@@ -18544,6 +20790,9 @@
       <c r="B240" t="s">
         <v>1052</v>
       </c>
+      <c r="C240" t="s">
+        <v>1052</v>
+      </c>
       <c r="D240" s="4" t="s">
         <v>1052</v>
       </c>
@@ -18556,6 +20805,9 @@
       <c r="B241" t="s">
         <v>1056</v>
       </c>
+      <c r="C241" t="s">
+        <v>1424</v>
+      </c>
       <c r="D241" s="4" t="s">
         <v>1056</v>
       </c>
@@ -18568,6 +20820,9 @@
       <c r="B242" t="s">
         <v>1061</v>
       </c>
+      <c r="C242" t="s">
+        <v>1425</v>
+      </c>
       <c r="D242" s="4" t="s">
         <v>1061</v>
       </c>
@@ -18580,6 +20835,9 @@
       <c r="B243" t="s">
         <v>1065</v>
       </c>
+      <c r="C243" t="s">
+        <v>1426</v>
+      </c>
       <c r="D243" s="4" t="s">
         <v>1065</v>
       </c>
@@ -18592,6 +20850,9 @@
       <c r="B244" t="s">
         <v>1069</v>
       </c>
+      <c r="C244" t="s">
+        <v>1427</v>
+      </c>
       <c r="D244" s="4" t="s">
         <v>1069</v>
       </c>
@@ -18604,6 +20865,9 @@
       <c r="B245" t="s">
         <v>1074</v>
       </c>
+      <c r="C245" t="s">
+        <v>1074</v>
+      </c>
       <c r="D245" s="4" t="s">
         <v>1074</v>
       </c>
@@ -18616,6 +20880,9 @@
       <c r="B246" t="s">
         <v>1078</v>
       </c>
+      <c r="C246" t="s">
+        <v>1428</v>
+      </c>
       <c r="D246" s="4" t="s">
         <v>1078</v>
       </c>
@@ -18628,6 +20895,9 @@
       <c r="B247" t="s">
         <v>1082</v>
       </c>
+      <c r="C247" t="s">
+        <v>1429</v>
+      </c>
       <c r="D247" s="4" t="s">
         <v>1082</v>
       </c>
@@ -18640,6 +20910,9 @@
       <c r="B248" t="s">
         <v>1087</v>
       </c>
+      <c r="C248" t="s">
+        <v>58</v>
+      </c>
       <c r="D248" s="4" t="s">
         <v>1087</v>
       </c>
@@ -18652,6 +20925,9 @@
       <c r="B249" t="s">
         <v>1092</v>
       </c>
+      <c r="C249" t="s">
+        <v>1092</v>
+      </c>
       <c r="D249" s="4" t="s">
         <v>1092</v>
       </c>
@@ -18664,6 +20940,9 @@
       <c r="B250" t="s">
         <v>1097</v>
       </c>
+      <c r="C250" t="s">
+        <v>1097</v>
+      </c>
       <c r="D250" s="4" t="s">
         <v>1097</v>
       </c>
@@ -18676,6 +20955,9 @@
       <c r="B251" t="s">
         <v>1102</v>
       </c>
+      <c r="C251" t="s">
+        <v>1430</v>
+      </c>
       <c r="D251" s="4" t="s">
         <v>1102</v>
       </c>
@@ -18688,6 +20970,9 @@
       <c r="B252" t="s">
         <v>1107</v>
       </c>
+      <c r="C252" t="s">
+        <v>1107</v>
+      </c>
       <c r="D252" s="4" t="s">
         <v>1107</v>
       </c>
@@ -18700,6 +20985,9 @@
       <c r="B253" t="s">
         <v>1111</v>
       </c>
+      <c r="C253" t="s">
+        <v>1111</v>
+      </c>
       <c r="D253" s="4" t="s">
         <v>1111</v>
       </c>
@@ -18712,6 +21000,9 @@
       <c r="B254" t="s">
         <v>1115</v>
       </c>
+      <c r="C254" t="s">
+        <v>1115</v>
+      </c>
       <c r="D254" s="4" t="s">
         <v>1115</v>
       </c>
@@ -18724,6 +21015,9 @@
       <c r="B255" t="s">
         <v>1119</v>
       </c>
+      <c r="C255" t="s">
+        <v>1119</v>
+      </c>
       <c r="D255" s="4" t="s">
         <v>1119</v>
       </c>
@@ -18736,6 +21030,9 @@
       <c r="B256" t="s">
         <v>1123</v>
       </c>
+      <c r="C256" t="s">
+        <v>1123</v>
+      </c>
       <c r="D256" s="4" t="s">
         <v>1123</v>
       </c>
@@ -18748,6 +21045,9 @@
       <c r="B257" t="s">
         <v>1128</v>
       </c>
+      <c r="C257" t="s">
+        <v>1431</v>
+      </c>
       <c r="D257" s="4" t="s">
         <v>1128</v>
       </c>
@@ -18760,6 +21060,9 @@
       <c r="B258" t="s">
         <v>1132</v>
       </c>
+      <c r="C258" t="s">
+        <v>1132</v>
+      </c>
       <c r="D258" s="4" t="s">
         <v>1132</v>
       </c>
@@ -18772,6 +21075,9 @@
       <c r="B259" t="s">
         <v>1136</v>
       </c>
+      <c r="C259" t="s">
+        <v>1136</v>
+      </c>
       <c r="D259" s="4" t="s">
         <v>1136</v>
       </c>
@@ -18784,6 +21090,9 @@
       <c r="B260" t="s">
         <v>1140</v>
       </c>
+      <c r="C260" t="s">
+        <v>1140</v>
+      </c>
       <c r="D260" s="4" t="s">
         <v>1140</v>
       </c>
@@ -18796,6 +21105,9 @@
       <c r="B261" t="s">
         <v>1144</v>
       </c>
+      <c r="C261" t="s">
+        <v>1144</v>
+      </c>
       <c r="D261" s="4" t="s">
         <v>1144</v>
       </c>
@@ -18808,6 +21120,9 @@
       <c r="B262" t="s">
         <v>1149</v>
       </c>
+      <c r="C262" t="s">
+        <v>1432</v>
+      </c>
       <c r="D262" s="4" t="s">
         <v>1149</v>
       </c>
@@ -18820,6 +21135,9 @@
       <c r="B263" t="s">
         <v>1153</v>
       </c>
+      <c r="C263" t="s">
+        <v>1153</v>
+      </c>
       <c r="D263" s="4" t="s">
         <v>1153</v>
       </c>
@@ -18832,6 +21150,9 @@
       <c r="B264" t="s">
         <v>1157</v>
       </c>
+      <c r="C264" t="s">
+        <v>1433</v>
+      </c>
       <c r="D264" s="4" t="s">
         <v>1157</v>
       </c>
@@ -18844,6 +21165,9 @@
       <c r="B265" t="s">
         <v>1161</v>
       </c>
+      <c r="C265" t="s">
+        <v>1161</v>
+      </c>
       <c r="D265" s="4" t="s">
         <v>1161</v>
       </c>
@@ -18856,6 +21180,9 @@
       <c r="B266" t="s">
         <v>1166</v>
       </c>
+      <c r="C266" t="s">
+        <v>1166</v>
+      </c>
       <c r="D266" s="4" t="s">
         <v>1166</v>
       </c>
@@ -18868,6 +21195,9 @@
       <c r="B267" t="s">
         <v>1170</v>
       </c>
+      <c r="C267" t="s">
+        <v>1170</v>
+      </c>
       <c r="D267" s="4" t="s">
         <v>1170</v>
       </c>
@@ -18880,6 +21210,9 @@
       <c r="B268" t="s">
         <v>1174</v>
       </c>
+      <c r="C268" t="s">
+        <v>1174</v>
+      </c>
       <c r="D268" s="4" t="s">
         <v>1174</v>
       </c>
@@ -18892,6 +21225,9 @@
       <c r="B269" t="s">
         <v>1178</v>
       </c>
+      <c r="C269" t="s">
+        <v>1178</v>
+      </c>
       <c r="D269" s="4" t="s">
         <v>1178</v>
       </c>
@@ -18904,6 +21240,9 @@
       <c r="B270" t="s">
         <v>1183</v>
       </c>
+      <c r="C270" t="s">
+        <v>1183</v>
+      </c>
       <c r="D270" s="4" t="s">
         <v>1183</v>
       </c>
@@ -18916,6 +21255,9 @@
       <c r="B271" t="s">
         <v>1189</v>
       </c>
+      <c r="C271" t="s">
+        <v>1189</v>
+      </c>
       <c r="D271" s="4" t="s">
         <v>1189</v>
       </c>
@@ -18928,6 +21270,9 @@
       <c r="B272" t="s">
         <v>1194</v>
       </c>
+      <c r="C272" t="s">
+        <v>1194</v>
+      </c>
       <c r="D272" s="4" t="s">
         <v>1194</v>
       </c>
@@ -18940,6 +21285,9 @@
       <c r="B273" t="s">
         <v>1199</v>
       </c>
+      <c r="C273" t="s">
+        <v>1434</v>
+      </c>
       <c r="D273" s="4" t="s">
         <v>1199</v>
       </c>
@@ -18952,6 +21300,9 @@
       <c r="B274" t="s">
         <v>1204</v>
       </c>
+      <c r="C274" t="s">
+        <v>1204</v>
+      </c>
       <c r="D274" s="4" t="s">
         <v>1204</v>
       </c>
@@ -18964,6 +21315,9 @@
       <c r="B275" t="s">
         <v>1209</v>
       </c>
+      <c r="C275" t="s">
+        <v>1209</v>
+      </c>
       <c r="D275" s="4" t="s">
         <v>1209</v>
       </c>
@@ -18976,6 +21330,9 @@
       <c r="B276" t="s">
         <v>1213</v>
       </c>
+      <c r="C276" t="s">
+        <v>1213</v>
+      </c>
       <c r="D276" s="4" t="s">
         <v>1213</v>
       </c>
@@ -18988,6 +21345,9 @@
       <c r="B277" t="s">
         <v>1218</v>
       </c>
+      <c r="C277" t="s">
+        <v>1435</v>
+      </c>
       <c r="D277" s="4" t="s">
         <v>1218</v>
       </c>
@@ -19000,6 +21360,9 @@
       <c r="B278" t="s">
         <v>1223</v>
       </c>
+      <c r="C278" t="s">
+        <v>1223</v>
+      </c>
       <c r="D278" s="4" t="s">
         <v>1223</v>
       </c>
@@ -19012,6 +21375,9 @@
       <c r="B279" t="s">
         <v>1078</v>
       </c>
+      <c r="C279" t="s">
+        <v>1436</v>
+      </c>
       <c r="D279" s="4" t="s">
         <v>1078</v>
       </c>
@@ -19024,6 +21390,9 @@
       <c r="B280" t="s">
         <v>1228</v>
       </c>
+      <c r="C280" t="s">
+        <v>1437</v>
+      </c>
       <c r="D280" s="4" t="s">
         <v>1228</v>
       </c>
@@ -19036,6 +21405,9 @@
       <c r="B281" t="s">
         <v>1232</v>
       </c>
+      <c r="C281" t="s">
+        <v>1232</v>
+      </c>
       <c r="D281" s="4" t="s">
         <v>1232</v>
       </c>
@@ -19048,6 +21420,9 @@
       <c r="B282" t="s">
         <v>1235</v>
       </c>
+      <c r="C282" t="s">
+        <v>1438</v>
+      </c>
       <c r="D282" s="4" t="s">
         <v>1235</v>
       </c>
@@ -19060,6 +21435,9 @@
       <c r="B283" t="s">
         <v>1239</v>
       </c>
+      <c r="C283" t="s">
+        <v>1239</v>
+      </c>
       <c r="D283" s="4" t="s">
         <v>1239</v>
       </c>
@@ -19072,6 +21450,9 @@
       <c r="B284" t="s">
         <v>1244</v>
       </c>
+      <c r="C284" t="s">
+        <v>1244</v>
+      </c>
       <c r="D284" s="4" t="s">
         <v>1244</v>
       </c>
@@ -19084,6 +21465,9 @@
       <c r="B285" t="s">
         <v>1248</v>
       </c>
+      <c r="C285" t="s">
+        <v>1439</v>
+      </c>
       <c r="D285" s="4" t="s">
         <v>1248</v>
       </c>
@@ -19096,6 +21480,9 @@
       <c r="B286" t="s">
         <v>1251</v>
       </c>
+      <c r="C286" t="s">
+        <v>1440</v>
+      </c>
       <c r="D286" s="4" t="s">
         <v>1251</v>
       </c>
@@ -19108,6 +21495,9 @@
       <c r="B287" t="s">
         <v>1256</v>
       </c>
+      <c r="C287" t="s">
+        <v>1256</v>
+      </c>
       <c r="D287" s="4" t="s">
         <v>1256</v>
       </c>
@@ -19120,6 +21510,9 @@
       <c r="B288" t="s">
         <v>1261</v>
       </c>
+      <c r="C288" t="s">
+        <v>1261</v>
+      </c>
       <c r="D288" s="4" t="s">
         <v>1261</v>
       </c>
@@ -19132,6 +21525,9 @@
       <c r="B289" t="s">
         <v>1266</v>
       </c>
+      <c r="C289" t="s">
+        <v>1441</v>
+      </c>
       <c r="D289" s="4" t="s">
         <v>1266</v>
       </c>
@@ -19143,6 +21539,9 @@
       </c>
       <c r="B290" t="s">
         <v>1270</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1442</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>1270</v>
